--- a/Assets/stockParts.xlsx
+++ b/Assets/stockParts.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_source\STUCK\Assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="24915" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="stockParts" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t>Part Config Path</t>
   </si>
@@ -940,40 +945,22 @@
     <t>Squad\Parts\Wheel\roverWheelXL3\roverWheelXL3.cfg</t>
   </si>
   <si>
-    <t>Needs converted to DDS</t>
-  </si>
-  <si>
-    <t>Mask From MWNN</t>
-  </si>
-  <si>
-    <t>Needs Shroud handled</t>
-  </si>
-  <si>
-    <t>Needs shroud handled</t>
-  </si>
-  <si>
-    <t>needs mesh excludes configured</t>
-  </si>
-  <si>
     <t>CurrentTextureSet</t>
   </si>
   <si>
-    <t>Normalization</t>
-  </si>
-  <si>
     <t>Default Colors</t>
   </si>
   <si>
-    <t>Fairing tip uses whole texture</t>
-  </si>
-  <si>
-    <t>texture set need paths fixed and all other params set</t>
-  </si>
-  <si>
-    <t>needs norm data calculated - auto calc failed</t>
-  </si>
-  <si>
     <t>Section Name</t>
+  </si>
+  <si>
+    <t>Norm-R</t>
+  </si>
+  <si>
+    <t>Norm-G</t>
+  </si>
+  <si>
+    <t>Norm-B</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1492,358 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1589,7 +1927,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1624,7 +1962,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1833,11 +2171,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K305"/>
+  <dimension ref="A1:L305"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F289" sqref="F289"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,15 +2183,18 @@
     <col min="1" max="1" width="76.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1864,64 +2205,70 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1" t="s">
         <v>309</v>
       </c>
-      <c r="E1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G1" t="s">
-        <v>315</v>
-      </c>
-      <c r="H1" t="s">
-        <v>319</v>
-      </c>
       <c r="I1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <f>"MASKS: " &amp; COUNTIF(B2:B350, TRUE)</f>
-        <v>MASKS: 208</v>
-      </c>
-      <c r="K1" t="str">
+        <v>MASKS: 0</v>
+      </c>
+      <c r="L1" t="str">
         <f>"TOTAL:" &amp; COUNTIF(A2:A350, "&gt;""")</f>
         <v>TOTAL:304</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1929,25 +2276,25 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
+      <c r="E3">
+        <v>185</v>
+      </c>
+      <c r="F3">
+        <v>120</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1955,25 +2302,19 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1981,25 +2322,28 @@
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
+      <c r="E5">
+        <v>180</v>
+      </c>
+      <c r="F5">
+        <v>122</v>
+      </c>
+      <c r="G5">
+        <v>26</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -2007,25 +2351,28 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
+      <c r="E6">
+        <v>180</v>
+      </c>
+      <c r="F6">
+        <v>122</v>
+      </c>
+      <c r="G6">
+        <v>26</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -2033,25 +2380,28 @@
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
+      <c r="E7">
+        <v>180</v>
+      </c>
+      <c r="F7">
+        <v>122</v>
+      </c>
+      <c r="G7">
+        <v>26</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -2059,25 +2409,28 @@
       <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
+      <c r="E8">
+        <v>180</v>
+      </c>
+      <c r="F8">
+        <v>88</v>
+      </c>
+      <c r="G8">
+        <v>130</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -2085,25 +2438,28 @@
       <c r="D9" t="b">
         <v>1</v>
       </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
+      <c r="E9">
+        <v>180</v>
+      </c>
+      <c r="F9">
+        <v>88</v>
+      </c>
+      <c r="G9">
+        <v>130</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -2111,25 +2467,28 @@
       <c r="D10" t="b">
         <v>1</v>
       </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
+      <c r="E10">
+        <v>180</v>
+      </c>
+      <c r="F10">
+        <v>88</v>
+      </c>
+      <c r="G10">
+        <v>130</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -2137,25 +2496,28 @@
       <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
+      <c r="E11">
+        <v>180</v>
+      </c>
+      <c r="F11">
+        <v>88</v>
+      </c>
+      <c r="G11">
+        <v>130</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -2163,25 +2525,19 @@
       <c r="D12" t="b">
         <v>1</v>
       </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -2189,25 +2545,19 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -2215,25 +2565,19 @@
       <c r="D14" t="b">
         <v>1</v>
       </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -2241,25 +2585,19 @@
       <c r="D15" t="b">
         <v>1</v>
       </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -2267,25 +2605,19 @@
       <c r="D16" t="b">
         <v>1</v>
       </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -2293,25 +2625,19 @@
       <c r="D17" t="b">
         <v>1</v>
       </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -2319,25 +2645,19 @@
       <c r="D18" t="b">
         <v>1</v>
       </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -2345,25 +2665,19 @@
       <c r="D19" t="b">
         <v>1</v>
       </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -2371,25 +2685,19 @@
       <c r="D20" t="b">
         <v>1</v>
       </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -2397,249 +2705,195 @@
       <c r="D21" t="b">
         <v>1</v>
       </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>308</v>
-      </c>
-      <c r="J22" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
-        <v>308</v>
-      </c>
-      <c r="J23" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
-        <v>308</v>
-      </c>
-      <c r="J24" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>117</v>
+      </c>
+      <c r="F25">
+        <v>89</v>
+      </c>
+      <c r="G25">
+        <v>92</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>308</v>
-      </c>
-      <c r="J25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>117</v>
+      </c>
+      <c r="F26">
+        <v>89</v>
+      </c>
+      <c r="G26">
+        <v>92</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
-        <v>308</v>
-      </c>
-      <c r="J26" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>117</v>
+      </c>
+      <c r="F27">
+        <v>89</v>
+      </c>
+      <c r="G27">
+        <v>92</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>308</v>
-      </c>
-      <c r="J27" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>117</v>
+      </c>
+      <c r="F28">
+        <v>89</v>
+      </c>
+      <c r="G28">
+        <v>92</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
-      <c r="I28" t="s">
-        <v>308</v>
-      </c>
-      <c r="J28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -2647,28 +2901,19 @@
       <c r="D29" t="b">
         <v>1</v>
       </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
-      <c r="I29" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -2676,25 +2921,19 @@
       <c r="D30" t="b">
         <v>1</v>
       </c>
-      <c r="E30" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -2702,20 +2941,14 @@
       <c r="D31" t="b">
         <v>1</v>
       </c>
-      <c r="E31" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2728,51 +2961,48 @@
       <c r="D32" t="b">
         <v>0</v>
       </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>193</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>35</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -2780,25 +3010,19 @@
       <c r="D34" t="b">
         <v>1</v>
       </c>
-      <c r="E34" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -2806,25 +3030,19 @@
       <c r="D35" t="b">
         <v>1</v>
       </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -2832,25 +3050,19 @@
       <c r="D36" t="b">
         <v>1</v>
       </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -2858,25 +3070,19 @@
       <c r="D37" t="b">
         <v>1</v>
       </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -2884,25 +3090,19 @@
       <c r="D38" t="b">
         <v>1</v>
       </c>
-      <c r="E38" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -2910,25 +3110,19 @@
       <c r="D39" t="b">
         <v>1</v>
       </c>
-      <c r="E39" t="b">
-        <v>1</v>
-      </c>
-      <c r="F39" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -2936,25 +3130,19 @@
       <c r="D40" t="b">
         <v>1</v>
       </c>
-      <c r="E40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -2962,25 +3150,19 @@
       <c r="D41" t="b">
         <v>1</v>
       </c>
-      <c r="E41" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" t="b">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -2988,519 +3170,570 @@
       <c r="D42" t="b">
         <v>1</v>
       </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>180</v>
+      </c>
+      <c r="F43">
+        <v>26</v>
+      </c>
+      <c r="G43">
+        <v>180</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" t="b">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>180</v>
+      </c>
+      <c r="F44">
+        <v>26</v>
+      </c>
+      <c r="G44">
+        <v>180</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>180</v>
+      </c>
+      <c r="F45">
+        <v>26</v>
+      </c>
+      <c r="G45">
+        <v>180</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="b">
-        <v>1</v>
-      </c>
-      <c r="F46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>180</v>
+      </c>
+      <c r="F46">
+        <v>26</v>
+      </c>
+      <c r="G46">
+        <v>180</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="b">
-        <v>1</v>
-      </c>
-      <c r="F47" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>180</v>
+      </c>
+      <c r="F47">
+        <v>26</v>
+      </c>
+      <c r="G47">
+        <v>180</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="b">
-        <v>1</v>
-      </c>
-      <c r="F48" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>180</v>
+      </c>
+      <c r="F48">
+        <v>26</v>
+      </c>
+      <c r="G48">
+        <v>180</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>180</v>
+      </c>
+      <c r="F49">
+        <v>26</v>
+      </c>
+      <c r="G49">
+        <v>180</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" t="b">
-        <v>1</v>
-      </c>
-      <c r="F50" t="b">
-        <v>1</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>180</v>
+      </c>
+      <c r="F50">
+        <v>26</v>
+      </c>
+      <c r="G50">
+        <v>180</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="b">
-        <v>1</v>
-      </c>
-      <c r="F51" t="b">
-        <v>1</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>180</v>
+      </c>
+      <c r="F51">
+        <v>26</v>
+      </c>
+      <c r="G51">
+        <v>180</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
-      </c>
-      <c r="E52" t="b">
-        <v>1</v>
-      </c>
-      <c r="F52" t="b">
-        <v>1</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>180</v>
+      </c>
+      <c r="F52">
+        <v>26</v>
+      </c>
+      <c r="G52">
+        <v>180</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" t="b">
-        <v>1</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>180</v>
+      </c>
+      <c r="F53">
+        <v>26</v>
+      </c>
+      <c r="G53">
+        <v>180</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54" t="b">
-        <v>1</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>180</v>
+      </c>
+      <c r="F54">
+        <v>26</v>
+      </c>
+      <c r="G54">
+        <v>180</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" t="b">
-        <v>1</v>
-      </c>
-      <c r="F55" t="b">
-        <v>1</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>180</v>
+      </c>
+      <c r="F55">
+        <v>26</v>
+      </c>
+      <c r="G55">
+        <v>180</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
-      </c>
-      <c r="E56" t="b">
-        <v>1</v>
-      </c>
-      <c r="F56" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>180</v>
+      </c>
+      <c r="F56">
+        <v>26</v>
+      </c>
+      <c r="G56">
+        <v>180</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" t="b">
-        <v>1</v>
-      </c>
-      <c r="F57" t="b">
-        <v>1</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>180</v>
+      </c>
+      <c r="F57">
+        <v>26</v>
+      </c>
+      <c r="G57">
+        <v>180</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" t="b">
-        <v>1</v>
-      </c>
-      <c r="F58" t="b">
-        <v>1</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>180</v>
+      </c>
+      <c r="F58">
+        <v>26</v>
+      </c>
+      <c r="G58">
+        <v>180</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
       </c>
       <c r="D59" t="b">
-        <v>0</v>
-      </c>
-      <c r="E59" t="b">
-        <v>1</v>
-      </c>
-      <c r="F59" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>180</v>
+      </c>
+      <c r="F59">
+        <v>26</v>
+      </c>
+      <c r="G59">
+        <v>180</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
-      </c>
-      <c r="E60" t="b">
-        <v>1</v>
-      </c>
-      <c r="F60" t="b">
-        <v>1</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>180</v>
+      </c>
+      <c r="F60">
+        <v>26</v>
+      </c>
+      <c r="G60">
+        <v>180</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
       <c r="D61" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" t="b">
-        <v>1</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>180</v>
+      </c>
+      <c r="F61">
+        <v>26</v>
+      </c>
+      <c r="G61">
+        <v>180</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
@@ -3508,25 +3741,19 @@
       <c r="D62" t="b">
         <v>1</v>
       </c>
-      <c r="E62" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" t="b">
-        <v>1</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
@@ -3534,25 +3761,19 @@
       <c r="D63" t="b">
         <v>1</v>
       </c>
-      <c r="E63" t="b">
-        <v>1</v>
-      </c>
-      <c r="F63" t="b">
-        <v>1</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
       <c r="H63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
@@ -3560,16 +3781,10 @@
       <c r="D64" t="b">
         <v>1</v>
       </c>
-      <c r="E64" t="b">
-        <v>1</v>
-      </c>
-      <c r="F64" t="b">
-        <v>1</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
       <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3578,7 +3793,7 @@
         <v>67</v>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
@@ -3586,16 +3801,10 @@
       <c r="D65" t="b">
         <v>1</v>
       </c>
-      <c r="E65" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" t="b">
-        <v>1</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
       <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3604,7 +3813,7 @@
         <v>68</v>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
@@ -3612,16 +3821,10 @@
       <c r="D66" t="b">
         <v>1</v>
       </c>
-      <c r="E66" t="b">
-        <v>1</v>
-      </c>
-      <c r="F66" t="b">
-        <v>1</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
       <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3638,16 +3841,10 @@
       <c r="D67" t="b">
         <v>0</v>
       </c>
-      <c r="E67" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
       <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3656,7 +3853,7 @@
         <v>70</v>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
@@ -3664,16 +3861,10 @@
       <c r="D68" t="b">
         <v>1</v>
       </c>
-      <c r="E68" t="b">
-        <v>1</v>
-      </c>
-      <c r="F68" t="b">
-        <v>1</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
       <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3682,7 +3873,7 @@
         <v>71</v>
       </c>
       <c r="B69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
@@ -3690,16 +3881,10 @@
       <c r="D69" t="b">
         <v>1</v>
       </c>
-      <c r="E69" t="b">
-        <v>1</v>
-      </c>
-      <c r="F69" t="b">
-        <v>1</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
       <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3708,7 +3893,7 @@
         <v>72</v>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
@@ -3716,16 +3901,10 @@
       <c r="D70" t="b">
         <v>1</v>
       </c>
-      <c r="E70" t="b">
-        <v>1</v>
-      </c>
-      <c r="F70" t="b">
-        <v>1</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
       <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3734,7 +3913,7 @@
         <v>73</v>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
@@ -3742,16 +3921,10 @@
       <c r="D71" t="b">
         <v>1</v>
       </c>
-      <c r="E71" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" t="b">
-        <v>1</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
       <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3760,7 +3933,7 @@
         <v>74</v>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
@@ -3768,16 +3941,10 @@
       <c r="D72" t="b">
         <v>1</v>
       </c>
-      <c r="E72" t="b">
-        <v>1</v>
-      </c>
-      <c r="F72" t="b">
-        <v>1</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
       <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3786,24 +3953,18 @@
         <v>75</v>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
-      </c>
-      <c r="E73" t="b">
-        <v>1</v>
-      </c>
-      <c r="F73" t="b">
-        <v>1</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3812,28 +3973,19 @@
         <v>76</v>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" t="b">
-        <v>0</v>
-      </c>
-      <c r="E74" t="b">
-        <v>1</v>
-      </c>
-      <c r="F74" t="b">
-        <v>1</v>
-      </c>
-      <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
-      <c r="I74" t="s">
-        <v>308</v>
+      <c r="I74" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3841,28 +3993,19 @@
         <v>77</v>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
       <c r="D75" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75" t="b">
-        <v>1</v>
-      </c>
-      <c r="F75" t="b">
-        <v>1</v>
-      </c>
-      <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
-      <c r="I75" t="s">
-        <v>308</v>
+      <c r="I75" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3870,7 +4013,7 @@
         <v>78</v>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
@@ -3878,16 +4021,10 @@
       <c r="D76" t="b">
         <v>1</v>
       </c>
-      <c r="E76" t="b">
-        <v>1</v>
-      </c>
-      <c r="F76" t="b">
-        <v>1</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
       <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3896,24 +4033,18 @@
         <v>79</v>
       </c>
       <c r="B77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" t="b">
-        <v>1</v>
-      </c>
-      <c r="F77" t="b">
-        <v>1</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3922,7 +4053,7 @@
         <v>80</v>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
@@ -3930,16 +4061,10 @@
       <c r="D78" t="b">
         <v>1</v>
       </c>
-      <c r="E78" t="b">
-        <v>1</v>
-      </c>
-      <c r="F78" t="b">
-        <v>1</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
       <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3956,16 +4081,10 @@
       <c r="D79" t="b">
         <v>0</v>
       </c>
-      <c r="E79" t="b">
-        <v>0</v>
-      </c>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
       <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3982,20 +4101,14 @@
       <c r="D80" t="b">
         <v>0</v>
       </c>
-      <c r="E80" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -4008,20 +4121,14 @@
       <c r="D81" t="b">
         <v>0</v>
       </c>
-      <c r="E81" t="b">
-        <v>0</v>
-      </c>
-      <c r="F81" t="b">
-        <v>0</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -4034,20 +4141,14 @@
       <c r="D82" t="b">
         <v>0</v>
       </c>
-      <c r="E82" t="b">
-        <v>0</v>
-      </c>
-      <c r="F82" t="b">
-        <v>0</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -4060,25 +4161,19 @@
       <c r="D83" t="b">
         <v>0</v>
       </c>
-      <c r="E83" t="b">
-        <v>0</v>
-      </c>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
@@ -4086,25 +4181,19 @@
       <c r="D84" t="b">
         <v>1</v>
       </c>
-      <c r="E84" t="b">
-        <v>1</v>
-      </c>
-      <c r="F84" t="b">
-        <v>1</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
@@ -4112,20 +4201,14 @@
       <c r="D85" t="b">
         <v>1</v>
       </c>
-      <c r="E85" t="b">
-        <v>1</v>
-      </c>
-      <c r="F85" t="b">
-        <v>1</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -4138,389 +4221,299 @@
       <c r="D86" t="b">
         <v>0</v>
       </c>
-      <c r="E86" t="b">
-        <v>0</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
       <c r="D87" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-      <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
       <c r="D88" t="b">
-        <v>1</v>
-      </c>
-      <c r="E88" t="b">
-        <v>0</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-      <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
       </c>
       <c r="D89" t="b">
-        <v>0</v>
-      </c>
-      <c r="E89" t="b">
-        <v>1</v>
-      </c>
-      <c r="F89" t="b">
-        <v>1</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>92</v>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
       </c>
       <c r="D90" t="b">
-        <v>0</v>
-      </c>
-      <c r="E90" t="b">
-        <v>1</v>
-      </c>
-      <c r="F90" t="b">
-        <v>1</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
       </c>
       <c r="D91" t="b">
-        <v>0</v>
-      </c>
-      <c r="E91" t="b">
-        <v>1</v>
-      </c>
-      <c r="F91" t="b">
-        <v>1</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
       </c>
       <c r="D92" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" t="b">
-        <v>1</v>
-      </c>
-      <c r="F92" t="b">
-        <v>1</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
       </c>
       <c r="D93" t="b">
-        <v>0</v>
-      </c>
-      <c r="E93" t="b">
-        <v>1</v>
-      </c>
-      <c r="F93" t="b">
-        <v>1</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
       </c>
       <c r="D94" t="b">
-        <v>0</v>
-      </c>
-      <c r="E94" t="b">
-        <v>1</v>
-      </c>
-      <c r="F94" t="b">
-        <v>1</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
       </c>
       <c r="D95" t="b">
-        <v>0</v>
-      </c>
-      <c r="E95" t="b">
-        <v>1</v>
-      </c>
-      <c r="F95" t="b">
-        <v>1</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
       </c>
       <c r="D96" t="b">
-        <v>0</v>
-      </c>
-      <c r="E96" t="b">
-        <v>1</v>
-      </c>
-      <c r="F96" t="b">
-        <v>1</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
       </c>
       <c r="D97" t="b">
-        <v>1</v>
-      </c>
-      <c r="E97" t="b">
-        <v>0</v>
-      </c>
-      <c r="F97" t="b">
-        <v>0</v>
-      </c>
-      <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
       </c>
       <c r="D98" t="b">
-        <v>1</v>
-      </c>
-      <c r="E98" t="b">
-        <v>0</v>
-      </c>
-      <c r="F98" t="b">
-        <v>0</v>
-      </c>
-      <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
       </c>
       <c r="D99" t="b">
-        <v>1</v>
-      </c>
-      <c r="E99" t="b">
-        <v>0</v>
-      </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-      <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
       </c>
       <c r="D100" t="b">
-        <v>1</v>
-      </c>
-      <c r="E100" t="b">
-        <v>0</v>
-      </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-      <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>103</v>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
@@ -4528,25 +4521,19 @@
       <c r="D101" t="b">
         <v>1</v>
       </c>
-      <c r="E101" t="b">
-        <v>1</v>
-      </c>
-      <c r="F101" t="b">
-        <v>1</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>104</v>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="b">
         <v>1</v>
@@ -4554,25 +4541,19 @@
       <c r="D102" t="b">
         <v>1</v>
       </c>
-      <c r="E102" t="b">
-        <v>1</v>
-      </c>
-      <c r="F102" t="b">
-        <v>1</v>
-      </c>
-      <c r="G102" t="b">
-        <v>0</v>
-      </c>
       <c r="H102" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>105</v>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="b">
         <v>1</v>
@@ -4580,20 +4561,14 @@
       <c r="D103" t="b">
         <v>1</v>
       </c>
-      <c r="E103" t="b">
-        <v>1</v>
-      </c>
-      <c r="F103" t="b">
-        <v>1</v>
-      </c>
-      <c r="G103" t="b">
-        <v>0</v>
-      </c>
       <c r="H103" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -4606,20 +4581,14 @@
       <c r="D104" t="b">
         <v>0</v>
       </c>
-      <c r="E104" t="b">
-        <v>0</v>
-      </c>
-      <c r="F104" t="b">
-        <v>0</v>
-      </c>
-      <c r="G104" t="b">
-        <v>0</v>
-      </c>
       <c r="H104" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -4632,20 +4601,14 @@
       <c r="D105" t="b">
         <v>0</v>
       </c>
-      <c r="E105" t="b">
-        <v>0</v>
-      </c>
-      <c r="F105" t="b">
-        <v>0</v>
-      </c>
-      <c r="G105" t="b">
-        <v>0</v>
-      </c>
       <c r="H105" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -4658,20 +4621,14 @@
       <c r="D106" t="b">
         <v>0</v>
       </c>
-      <c r="E106" t="b">
-        <v>0</v>
-      </c>
-      <c r="F106" t="b">
-        <v>0</v>
-      </c>
-      <c r="G106" t="b">
-        <v>0</v>
-      </c>
       <c r="H106" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -4684,20 +4641,14 @@
       <c r="D107" t="b">
         <v>0</v>
       </c>
-      <c r="E107" t="b">
-        <v>0</v>
-      </c>
-      <c r="F107" t="b">
-        <v>0</v>
-      </c>
-      <c r="G107" t="b">
-        <v>0</v>
-      </c>
       <c r="H107" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -4710,20 +4661,14 @@
       <c r="D108" t="b">
         <v>0</v>
       </c>
-      <c r="E108" t="b">
-        <v>0</v>
-      </c>
-      <c r="F108" t="b">
-        <v>0</v>
-      </c>
-      <c r="G108" t="b">
-        <v>0</v>
-      </c>
       <c r="H108" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -4736,25 +4681,19 @@
       <c r="D109" t="b">
         <v>0</v>
       </c>
-      <c r="E109" t="b">
-        <v>0</v>
-      </c>
-      <c r="F109" t="b">
-        <v>0</v>
-      </c>
-      <c r="G109" t="b">
-        <v>0</v>
-      </c>
       <c r="H109" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>112</v>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="b">
         <v>1</v>
@@ -4762,25 +4701,19 @@
       <c r="D110" t="b">
         <v>1</v>
       </c>
-      <c r="E110" t="b">
-        <v>1</v>
-      </c>
-      <c r="F110" t="b">
-        <v>1</v>
-      </c>
-      <c r="G110" t="b">
-        <v>0</v>
-      </c>
       <c r="H110" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>113</v>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="b">
         <v>1</v>
@@ -4788,25 +4721,19 @@
       <c r="D111" t="b">
         <v>1</v>
       </c>
-      <c r="E111" t="b">
-        <v>1</v>
-      </c>
-      <c r="F111" t="b">
-        <v>1</v>
-      </c>
-      <c r="G111" t="b">
-        <v>0</v>
-      </c>
       <c r="H111" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>114</v>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="b">
         <v>1</v>
@@ -4814,25 +4741,19 @@
       <c r="D112" t="b">
         <v>1</v>
       </c>
-      <c r="E112" t="b">
-        <v>1</v>
-      </c>
-      <c r="F112" t="b">
-        <v>1</v>
-      </c>
-      <c r="G112" t="b">
-        <v>0</v>
-      </c>
       <c r="H112" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>115</v>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="b">
         <v>1</v>
@@ -4840,20 +4761,14 @@
       <c r="D113" t="b">
         <v>1</v>
       </c>
-      <c r="E113" t="b">
-        <v>1</v>
-      </c>
-      <c r="F113" t="b">
-        <v>1</v>
-      </c>
-      <c r="G113" t="b">
-        <v>0</v>
-      </c>
       <c r="H113" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -4866,20 +4781,14 @@
       <c r="D114" t="b">
         <v>0</v>
       </c>
-      <c r="E114" t="b">
-        <v>0</v>
-      </c>
-      <c r="F114" t="b">
-        <v>0</v>
-      </c>
-      <c r="G114" t="b">
-        <v>0</v>
-      </c>
       <c r="H114" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -4892,25 +4801,19 @@
       <c r="D115" t="b">
         <v>0</v>
       </c>
-      <c r="E115" t="b">
-        <v>0</v>
-      </c>
-      <c r="F115" t="b">
-        <v>0</v>
-      </c>
-      <c r="G115" t="b">
-        <v>0</v>
-      </c>
       <c r="H115" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>118</v>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="b">
         <v>1</v>
@@ -4918,20 +4821,14 @@
       <c r="D116" t="b">
         <v>1</v>
       </c>
-      <c r="E116" t="b">
-        <v>1</v>
-      </c>
-      <c r="F116" t="b">
-        <v>1</v>
-      </c>
-      <c r="G116" t="b">
-        <v>0</v>
-      </c>
       <c r="H116" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -4944,20 +4841,14 @@
       <c r="D117" t="b">
         <v>0</v>
       </c>
-      <c r="E117" t="b">
-        <v>0</v>
-      </c>
-      <c r="F117" t="b">
-        <v>0</v>
-      </c>
-      <c r="G117" t="b">
-        <v>0</v>
-      </c>
       <c r="H117" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -4970,20 +4861,14 @@
       <c r="D118" t="b">
         <v>0</v>
       </c>
-      <c r="E118" t="b">
-        <v>0</v>
-      </c>
-      <c r="F118" t="b">
-        <v>0</v>
-      </c>
-      <c r="G118" t="b">
-        <v>0</v>
-      </c>
       <c r="H118" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -4996,20 +4881,14 @@
       <c r="D119" t="b">
         <v>0</v>
       </c>
-      <c r="E119" t="b">
-        <v>0</v>
-      </c>
-      <c r="F119" t="b">
-        <v>0</v>
-      </c>
-      <c r="G119" t="b">
-        <v>0</v>
-      </c>
       <c r="H119" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -5022,20 +4901,14 @@
       <c r="D120" t="b">
         <v>0</v>
       </c>
-      <c r="E120" t="b">
-        <v>0</v>
-      </c>
-      <c r="F120" t="b">
-        <v>0</v>
-      </c>
-      <c r="G120" t="b">
-        <v>0</v>
-      </c>
       <c r="H120" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -5048,20 +4921,14 @@
       <c r="D121" t="b">
         <v>0</v>
       </c>
-      <c r="E121" t="b">
-        <v>0</v>
-      </c>
-      <c r="F121" t="b">
-        <v>0</v>
-      </c>
-      <c r="G121" t="b">
-        <v>0</v>
-      </c>
       <c r="H121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -5074,20 +4941,14 @@
       <c r="D122" t="b">
         <v>0</v>
       </c>
-      <c r="E122" t="b">
-        <v>0</v>
-      </c>
-      <c r="F122" t="b">
-        <v>0</v>
-      </c>
-      <c r="G122" t="b">
-        <v>0</v>
-      </c>
       <c r="H122" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -5100,25 +4961,19 @@
       <c r="D123" t="b">
         <v>0</v>
       </c>
-      <c r="E123" t="b">
-        <v>0</v>
-      </c>
-      <c r="F123" t="b">
-        <v>0</v>
-      </c>
-      <c r="G123" t="b">
-        <v>0</v>
-      </c>
       <c r="H123" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>126</v>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="b">
         <v>1</v>
@@ -5126,20 +4981,14 @@
       <c r="D124" t="b">
         <v>1</v>
       </c>
-      <c r="E124" t="b">
-        <v>1</v>
-      </c>
-      <c r="F124" t="b">
-        <v>1</v>
-      </c>
-      <c r="G124" t="b">
-        <v>0</v>
-      </c>
       <c r="H124" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -5152,20 +5001,14 @@
       <c r="D125" t="b">
         <v>0</v>
       </c>
-      <c r="E125" t="b">
-        <v>0</v>
-      </c>
-      <c r="F125" t="b">
-        <v>0</v>
-      </c>
-      <c r="G125" t="b">
-        <v>0</v>
-      </c>
       <c r="H125" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -5178,20 +5021,14 @@
       <c r="D126" t="b">
         <v>0</v>
       </c>
-      <c r="E126" t="b">
-        <v>0</v>
-      </c>
-      <c r="F126" t="b">
-        <v>0</v>
-      </c>
-      <c r="G126" t="b">
-        <v>0</v>
-      </c>
       <c r="H126" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -5204,25 +5041,19 @@
       <c r="D127" t="b">
         <v>0</v>
       </c>
-      <c r="E127" t="b">
-        <v>0</v>
-      </c>
-      <c r="F127" t="b">
-        <v>0</v>
-      </c>
-      <c r="G127" t="b">
-        <v>0</v>
-      </c>
       <c r="H127" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>130</v>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="b">
         <v>1</v>
@@ -5230,16 +5061,10 @@
       <c r="D128" t="b">
         <v>1</v>
       </c>
-      <c r="E128" t="b">
-        <v>1</v>
-      </c>
-      <c r="F128" t="b">
-        <v>1</v>
-      </c>
-      <c r="G128" t="b">
-        <v>0</v>
-      </c>
       <c r="H128" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5248,7 +5073,7 @@
         <v>131</v>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="b">
         <v>1</v>
@@ -5256,16 +5081,10 @@
       <c r="D129" t="b">
         <v>1</v>
       </c>
-      <c r="E129" t="b">
-        <v>1</v>
-      </c>
-      <c r="F129" t="b">
-        <v>1</v>
-      </c>
-      <c r="G129" t="b">
-        <v>0</v>
-      </c>
       <c r="H129" t="b">
+        <v>0</v>
+      </c>
+      <c r="I129" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5274,7 +5093,7 @@
         <v>132</v>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="b">
         <v>1</v>
@@ -5282,16 +5101,10 @@
       <c r="D130" t="b">
         <v>1</v>
       </c>
-      <c r="E130" t="b">
-        <v>1</v>
-      </c>
-      <c r="F130" t="b">
-        <v>1</v>
-      </c>
-      <c r="G130" t="b">
-        <v>0</v>
-      </c>
       <c r="H130" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5300,7 +5113,7 @@
         <v>133</v>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="b">
         <v>1</v>
@@ -5308,20 +5121,11 @@
       <c r="D131" t="b">
         <v>1</v>
       </c>
-      <c r="E131" t="b">
-        <v>1</v>
-      </c>
-      <c r="F131" t="b">
-        <v>0</v>
-      </c>
-      <c r="G131" t="b">
-        <v>0</v>
-      </c>
       <c r="H131" t="b">
         <v>0</v>
       </c>
-      <c r="I131" t="s">
-        <v>317</v>
+      <c r="I131" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5337,16 +5141,10 @@
       <c r="D132" t="b">
         <v>0</v>
       </c>
-      <c r="E132" t="b">
-        <v>0</v>
-      </c>
-      <c r="F132" t="b">
-        <v>0</v>
-      </c>
-      <c r="G132" t="b">
-        <v>0</v>
-      </c>
       <c r="H132" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5363,16 +5161,10 @@
       <c r="D133" t="b">
         <v>0</v>
       </c>
-      <c r="E133" t="b">
-        <v>0</v>
-      </c>
-      <c r="F133" t="b">
-        <v>0</v>
-      </c>
-      <c r="G133" t="b">
-        <v>0</v>
-      </c>
       <c r="H133" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5381,7 +5173,7 @@
         <v>136</v>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="b">
         <v>1</v>
@@ -5389,16 +5181,10 @@
       <c r="D134" t="b">
         <v>1</v>
       </c>
-      <c r="E134" t="b">
-        <v>1</v>
-      </c>
-      <c r="F134" t="b">
-        <v>1</v>
-      </c>
-      <c r="G134" t="b">
-        <v>0</v>
-      </c>
       <c r="H134" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5415,16 +5201,10 @@
       <c r="D135" t="b">
         <v>0</v>
       </c>
-      <c r="E135" t="b">
-        <v>0</v>
-      </c>
-      <c r="F135" t="b">
-        <v>0</v>
-      </c>
-      <c r="G135" t="b">
-        <v>0</v>
-      </c>
       <c r="H135" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5433,7 +5213,7 @@
         <v>138</v>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="b">
         <v>1</v>
@@ -5441,16 +5221,10 @@
       <c r="D136" t="b">
         <v>1</v>
       </c>
-      <c r="E136" t="b">
-        <v>1</v>
-      </c>
-      <c r="F136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G136" t="b">
-        <v>0</v>
-      </c>
       <c r="H136" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5459,7 +5233,7 @@
         <v>139</v>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="b">
         <v>1</v>
@@ -5467,16 +5241,10 @@
       <c r="D137" t="b">
         <v>1</v>
       </c>
-      <c r="E137" t="b">
-        <v>1</v>
-      </c>
-      <c r="F137" t="b">
-        <v>1</v>
-      </c>
-      <c r="G137" t="b">
-        <v>0</v>
-      </c>
       <c r="H137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5485,7 +5253,7 @@
         <v>140</v>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="b">
         <v>1</v>
@@ -5493,16 +5261,10 @@
       <c r="D138" t="b">
         <v>1</v>
       </c>
-      <c r="E138" t="b">
-        <v>1</v>
-      </c>
-      <c r="F138" t="b">
-        <v>1</v>
-      </c>
-      <c r="G138" t="b">
-        <v>0</v>
-      </c>
       <c r="H138" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5511,7 +5273,7 @@
         <v>141</v>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="b">
         <v>1</v>
@@ -5519,16 +5281,10 @@
       <c r="D139" t="b">
         <v>1</v>
       </c>
-      <c r="E139" t="b">
-        <v>1</v>
-      </c>
-      <c r="F139" t="b">
-        <v>1</v>
-      </c>
-      <c r="G139" t="b">
-        <v>0</v>
-      </c>
       <c r="H139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5537,7 +5293,7 @@
         <v>142</v>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="b">
         <v>1</v>
@@ -5545,16 +5301,10 @@
       <c r="D140" t="b">
         <v>1</v>
       </c>
-      <c r="E140" t="b">
-        <v>1</v>
-      </c>
-      <c r="F140" t="b">
-        <v>1</v>
-      </c>
-      <c r="G140" t="b">
-        <v>0</v>
-      </c>
       <c r="H140" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5563,7 +5313,7 @@
         <v>143</v>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="b">
         <v>1</v>
@@ -5571,16 +5321,10 @@
       <c r="D141" t="b">
         <v>1</v>
       </c>
-      <c r="E141" t="b">
-        <v>1</v>
-      </c>
-      <c r="F141" t="b">
-        <v>1</v>
-      </c>
-      <c r="G141" t="b">
-        <v>0</v>
-      </c>
       <c r="H141" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5589,7 +5333,7 @@
         <v>144</v>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="b">
         <v>1</v>
@@ -5597,16 +5341,10 @@
       <c r="D142" t="b">
         <v>1</v>
       </c>
-      <c r="E142" t="b">
-        <v>1</v>
-      </c>
-      <c r="F142" t="b">
-        <v>1</v>
-      </c>
-      <c r="G142" t="b">
-        <v>0</v>
-      </c>
       <c r="H142" t="b">
+        <v>0</v>
+      </c>
+      <c r="I142" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5615,7 +5353,7 @@
         <v>145</v>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="b">
         <v>1</v>
@@ -5623,16 +5361,10 @@
       <c r="D143" t="b">
         <v>1</v>
       </c>
-      <c r="E143" t="b">
-        <v>1</v>
-      </c>
-      <c r="F143" t="b">
-        <v>1</v>
-      </c>
-      <c r="G143" t="b">
-        <v>0</v>
-      </c>
       <c r="H143" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5641,7 +5373,7 @@
         <v>146</v>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="b">
         <v>1</v>
@@ -5649,25 +5381,19 @@
       <c r="D144" t="b">
         <v>1</v>
       </c>
-      <c r="E144" t="b">
-        <v>1</v>
-      </c>
-      <c r="F144" t="b">
-        <v>1</v>
-      </c>
-      <c r="G144" t="b">
-        <v>0</v>
-      </c>
       <c r="H144" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>147</v>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="b">
         <v>1</v>
@@ -5675,25 +5401,19 @@
       <c r="D145" t="b">
         <v>1</v>
       </c>
-      <c r="E145" t="b">
-        <v>1</v>
-      </c>
-      <c r="F145" t="b">
-        <v>1</v>
-      </c>
-      <c r="G145" t="b">
-        <v>0</v>
-      </c>
       <c r="H145" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>148</v>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="b">
         <v>1</v>
@@ -5701,20 +5421,14 @@
       <c r="D146" t="b">
         <v>1</v>
       </c>
-      <c r="E146" t="b">
-        <v>1</v>
-      </c>
-      <c r="F146" t="b">
-        <v>1</v>
-      </c>
-      <c r="G146" t="b">
-        <v>0</v>
-      </c>
       <c r="H146" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -5727,20 +5441,14 @@
       <c r="D147" t="b">
         <v>0</v>
       </c>
-      <c r="E147" t="b">
-        <v>0</v>
-      </c>
-      <c r="F147" t="b">
-        <v>0</v>
-      </c>
-      <c r="G147" t="b">
-        <v>0</v>
-      </c>
       <c r="H147" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -5753,20 +5461,14 @@
       <c r="D148" t="b">
         <v>0</v>
       </c>
-      <c r="E148" t="b">
-        <v>0</v>
-      </c>
-      <c r="F148" t="b">
-        <v>0</v>
-      </c>
-      <c r="G148" t="b">
-        <v>0</v>
-      </c>
       <c r="H148" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -5779,20 +5481,14 @@
       <c r="D149" t="b">
         <v>0</v>
       </c>
-      <c r="E149" t="b">
-        <v>0</v>
-      </c>
-      <c r="F149" t="b">
-        <v>0</v>
-      </c>
-      <c r="G149" t="b">
-        <v>0</v>
-      </c>
       <c r="H149" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -5805,25 +5501,19 @@
       <c r="D150" t="b">
         <v>0</v>
       </c>
-      <c r="E150" t="b">
-        <v>0</v>
-      </c>
-      <c r="F150" t="b">
-        <v>0</v>
-      </c>
-      <c r="G150" t="b">
-        <v>0</v>
-      </c>
       <c r="H150" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>153</v>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="b">
         <v>1</v>
@@ -5831,233 +5521,179 @@
       <c r="D151" t="b">
         <v>1</v>
       </c>
-      <c r="E151" t="b">
-        <v>1</v>
-      </c>
-      <c r="F151" t="b">
-        <v>1</v>
-      </c>
-      <c r="G151" t="b">
-        <v>0</v>
-      </c>
       <c r="H151" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>154</v>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="b">
         <v>1</v>
       </c>
       <c r="D152" t="b">
-        <v>0</v>
-      </c>
-      <c r="E152" t="b">
-        <v>1</v>
-      </c>
-      <c r="F152" t="b">
-        <v>1</v>
-      </c>
-      <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>155</v>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="b">
         <v>1</v>
       </c>
       <c r="D153" t="b">
-        <v>0</v>
-      </c>
-      <c r="E153" t="b">
-        <v>1</v>
-      </c>
-      <c r="F153" t="b">
-        <v>1</v>
-      </c>
-      <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>156</v>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="b">
         <v>1</v>
       </c>
       <c r="D154" t="b">
-        <v>0</v>
-      </c>
-      <c r="E154" t="b">
-        <v>1</v>
-      </c>
-      <c r="F154" t="b">
-        <v>1</v>
-      </c>
-      <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>158</v>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="b">
         <v>1</v>
       </c>
       <c r="D155" t="b">
-        <v>0</v>
-      </c>
-      <c r="E155" t="b">
-        <v>1</v>
-      </c>
-      <c r="F155" t="b">
-        <v>1</v>
-      </c>
-      <c r="G155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>157</v>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="b">
         <v>1</v>
       </c>
       <c r="D156" t="b">
-        <v>0</v>
-      </c>
-      <c r="E156" t="b">
-        <v>1</v>
-      </c>
-      <c r="F156" t="b">
-        <v>1</v>
-      </c>
-      <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>160</v>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="b">
         <v>1</v>
       </c>
       <c r="D157" t="b">
-        <v>0</v>
-      </c>
-      <c r="E157" t="b">
-        <v>1</v>
-      </c>
-      <c r="F157" t="b">
-        <v>1</v>
-      </c>
-      <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>159</v>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="b">
         <v>1</v>
       </c>
       <c r="D158" t="b">
-        <v>0</v>
-      </c>
-      <c r="E158" t="b">
-        <v>1</v>
-      </c>
-      <c r="F158" t="b">
-        <v>1</v>
-      </c>
-      <c r="G158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>161</v>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="b">
         <v>1</v>
       </c>
       <c r="D159" t="b">
-        <v>0</v>
-      </c>
-      <c r="E159" t="b">
-        <v>1</v>
-      </c>
-      <c r="F159" t="b">
-        <v>1</v>
-      </c>
-      <c r="G159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>162</v>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="b">
         <v>1</v>
@@ -6065,25 +5701,19 @@
       <c r="D160" t="b">
         <v>1</v>
       </c>
-      <c r="E160" t="b">
-        <v>1</v>
-      </c>
-      <c r="F160" t="b">
-        <v>1</v>
-      </c>
-      <c r="G160" t="b">
-        <v>0</v>
-      </c>
       <c r="H160" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>166</v>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="b">
         <v>1</v>
@@ -6091,25 +5721,19 @@
       <c r="D161" t="b">
         <v>1</v>
       </c>
-      <c r="E161" t="b">
-        <v>1</v>
-      </c>
-      <c r="F161" t="b">
-        <v>1</v>
-      </c>
-      <c r="G161" t="b">
-        <v>0</v>
-      </c>
       <c r="H161" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>167</v>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="b">
         <v>1</v>
@@ -6117,25 +5741,19 @@
       <c r="D162" t="b">
         <v>1</v>
       </c>
-      <c r="E162" t="b">
-        <v>1</v>
-      </c>
-      <c r="F162" t="b">
-        <v>1</v>
-      </c>
-      <c r="G162" t="b">
-        <v>0</v>
-      </c>
       <c r="H162" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>168</v>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="b">
         <v>1</v>
@@ -6143,25 +5761,19 @@
       <c r="D163" t="b">
         <v>1</v>
       </c>
-      <c r="E163" t="b">
-        <v>1</v>
-      </c>
-      <c r="F163" t="b">
-        <v>1</v>
-      </c>
-      <c r="G163" t="b">
-        <v>0</v>
-      </c>
       <c r="H163" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="b">
         <v>1</v>
@@ -6169,25 +5781,19 @@
       <c r="D164" t="b">
         <v>1</v>
       </c>
-      <c r="E164" t="b">
-        <v>1</v>
-      </c>
-      <c r="F164" t="b">
-        <v>1</v>
-      </c>
-      <c r="G164" t="b">
-        <v>0</v>
-      </c>
       <c r="H164" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="b">
         <v>1</v>
@@ -6195,25 +5801,19 @@
       <c r="D165" t="b">
         <v>1</v>
       </c>
-      <c r="E165" t="b">
-        <v>1</v>
-      </c>
-      <c r="F165" t="b">
-        <v>1</v>
-      </c>
-      <c r="G165" t="b">
-        <v>0</v>
-      </c>
       <c r="H165" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="b">
         <v>1</v>
@@ -6221,25 +5821,19 @@
       <c r="D166" t="b">
         <v>1</v>
       </c>
-      <c r="E166" t="b">
-        <v>1</v>
-      </c>
-      <c r="F166" t="b">
-        <v>1</v>
-      </c>
-      <c r="G166" t="b">
-        <v>0</v>
-      </c>
       <c r="H166" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>169</v>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="b">
         <v>1</v>
@@ -6247,20 +5841,14 @@
       <c r="D167" t="b">
         <v>1</v>
       </c>
-      <c r="E167" t="b">
-        <v>1</v>
-      </c>
-      <c r="F167" t="b">
-        <v>1</v>
-      </c>
-      <c r="G167" t="b">
-        <v>0</v>
-      </c>
       <c r="H167" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -6273,25 +5861,19 @@
       <c r="D168" t="b">
         <v>0</v>
       </c>
-      <c r="E168" t="b">
-        <v>0</v>
-      </c>
-      <c r="F168" t="b">
-        <v>0</v>
-      </c>
-      <c r="G168" t="b">
-        <v>0</v>
-      </c>
       <c r="H168" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>171</v>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="b">
         <v>1</v>
@@ -6299,25 +5881,19 @@
       <c r="D169" t="b">
         <v>1</v>
       </c>
-      <c r="E169" t="b">
-        <v>1</v>
-      </c>
-      <c r="F169" t="b">
-        <v>1</v>
-      </c>
-      <c r="G169" t="b">
-        <v>0</v>
-      </c>
       <c r="H169" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>172</v>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="b">
         <v>1</v>
@@ -6325,25 +5901,19 @@
       <c r="D170" t="b">
         <v>1</v>
       </c>
-      <c r="E170" t="b">
-        <v>1</v>
-      </c>
-      <c r="F170" t="b">
-        <v>1</v>
-      </c>
-      <c r="G170" t="b">
-        <v>0</v>
-      </c>
       <c r="H170" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>173</v>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="b">
         <v>1</v>
@@ -6351,25 +5921,19 @@
       <c r="D171" t="b">
         <v>1</v>
       </c>
-      <c r="E171" t="b">
-        <v>1</v>
-      </c>
-      <c r="F171" t="b">
-        <v>1</v>
-      </c>
-      <c r="G171" t="b">
-        <v>0</v>
-      </c>
       <c r="H171" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>174</v>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="b">
         <v>1</v>
@@ -6377,25 +5941,19 @@
       <c r="D172" t="b">
         <v>1</v>
       </c>
-      <c r="E172" t="b">
-        <v>1</v>
-      </c>
-      <c r="F172" t="b">
-        <v>1</v>
-      </c>
-      <c r="G172" t="b">
-        <v>0</v>
-      </c>
       <c r="H172" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>175</v>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="b">
         <v>1</v>
@@ -6403,25 +5961,19 @@
       <c r="D173" t="b">
         <v>1</v>
       </c>
-      <c r="E173" t="b">
-        <v>1</v>
-      </c>
-      <c r="F173" t="b">
-        <v>1</v>
-      </c>
-      <c r="G173" t="b">
-        <v>0</v>
-      </c>
       <c r="H173" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>176</v>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="b">
         <v>1</v>
@@ -6429,25 +5981,19 @@
       <c r="D174" t="b">
         <v>1</v>
       </c>
-      <c r="E174" t="b">
-        <v>1</v>
-      </c>
-      <c r="F174" t="b">
-        <v>1</v>
-      </c>
-      <c r="G174" t="b">
-        <v>0</v>
-      </c>
       <c r="H174" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>177</v>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="b">
         <v>1</v>
@@ -6455,25 +6001,19 @@
       <c r="D175" t="b">
         <v>1</v>
       </c>
-      <c r="E175" t="b">
-        <v>1</v>
-      </c>
-      <c r="F175" t="b">
-        <v>1</v>
-      </c>
-      <c r="G175" t="b">
-        <v>0</v>
-      </c>
       <c r="H175" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>178</v>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="b">
         <v>1</v>
@@ -6481,20 +6021,14 @@
       <c r="D176" t="b">
         <v>1</v>
       </c>
-      <c r="E176" t="b">
-        <v>1</v>
-      </c>
-      <c r="F176" t="b">
-        <v>1</v>
-      </c>
-      <c r="G176" t="b">
-        <v>0</v>
-      </c>
       <c r="H176" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>179</v>
       </c>
@@ -6507,20 +6041,14 @@
       <c r="D177" t="b">
         <v>0</v>
       </c>
-      <c r="E177" t="b">
-        <v>0</v>
-      </c>
-      <c r="F177" t="b">
-        <v>0</v>
-      </c>
-      <c r="G177" t="b">
-        <v>0</v>
-      </c>
       <c r="H177" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>180</v>
       </c>
@@ -6533,20 +6061,14 @@
       <c r="D178" t="b">
         <v>0</v>
       </c>
-      <c r="E178" t="b">
-        <v>0</v>
-      </c>
-      <c r="F178" t="b">
-        <v>0</v>
-      </c>
-      <c r="G178" t="b">
-        <v>0</v>
-      </c>
       <c r="H178" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -6559,20 +6081,14 @@
       <c r="D179" t="b">
         <v>0</v>
       </c>
-      <c r="E179" t="b">
-        <v>0</v>
-      </c>
-      <c r="F179" t="b">
-        <v>0</v>
-      </c>
-      <c r="G179" t="b">
-        <v>0</v>
-      </c>
       <c r="H179" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>182</v>
       </c>
@@ -6585,25 +6101,19 @@
       <c r="D180" t="b">
         <v>0</v>
       </c>
-      <c r="E180" t="b">
-        <v>0</v>
-      </c>
-      <c r="F180" t="b">
-        <v>0</v>
-      </c>
-      <c r="G180" t="b">
-        <v>0</v>
-      </c>
       <c r="H180" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>183</v>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="b">
         <v>1</v>
@@ -6611,25 +6121,19 @@
       <c r="D181" t="b">
         <v>1</v>
       </c>
-      <c r="E181" t="b">
-        <v>1</v>
-      </c>
-      <c r="F181" t="b">
-        <v>1</v>
-      </c>
-      <c r="G181" t="b">
-        <v>0</v>
-      </c>
       <c r="H181" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>184</v>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="b">
         <v>1</v>
@@ -6637,25 +6141,19 @@
       <c r="D182" t="b">
         <v>1</v>
       </c>
-      <c r="E182" t="b">
-        <v>1</v>
-      </c>
-      <c r="F182" t="b">
-        <v>1</v>
-      </c>
-      <c r="G182" t="b">
-        <v>0</v>
-      </c>
       <c r="H182" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>185</v>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="b">
         <v>1</v>
@@ -6663,20 +6161,14 @@
       <c r="D183" t="b">
         <v>1</v>
       </c>
-      <c r="E183" t="b">
-        <v>1</v>
-      </c>
-      <c r="F183" t="b">
-        <v>1</v>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
       <c r="H183" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>186</v>
       </c>
@@ -6689,20 +6181,14 @@
       <c r="D184" t="b">
         <v>0</v>
       </c>
-      <c r="E184" t="b">
-        <v>0</v>
-      </c>
-      <c r="F184" t="b">
-        <v>0</v>
-      </c>
-      <c r="G184" t="b">
-        <v>0</v>
-      </c>
       <c r="H184" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>187</v>
       </c>
@@ -6715,20 +6201,14 @@
       <c r="D185" t="b">
         <v>0</v>
       </c>
-      <c r="E185" t="b">
-        <v>0</v>
-      </c>
-      <c r="F185" t="b">
-        <v>0</v>
-      </c>
-      <c r="G185" t="b">
-        <v>0</v>
-      </c>
       <c r="H185" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>188</v>
       </c>
@@ -6741,20 +6221,14 @@
       <c r="D186" t="b">
         <v>0</v>
       </c>
-      <c r="E186" t="b">
-        <v>0</v>
-      </c>
-      <c r="F186" t="b">
-        <v>0</v>
-      </c>
-      <c r="G186" t="b">
-        <v>0</v>
-      </c>
       <c r="H186" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>189</v>
       </c>
@@ -6767,20 +6241,14 @@
       <c r="D187" t="b">
         <v>0</v>
       </c>
-      <c r="E187" t="b">
-        <v>0</v>
-      </c>
-      <c r="F187" t="b">
-        <v>0</v>
-      </c>
-      <c r="G187" t="b">
-        <v>0</v>
-      </c>
       <c r="H187" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>190</v>
       </c>
@@ -6793,20 +6261,14 @@
       <c r="D188" t="b">
         <v>0</v>
       </c>
-      <c r="E188" t="b">
-        <v>0</v>
-      </c>
-      <c r="F188" t="b">
-        <v>0</v>
-      </c>
-      <c r="G188" t="b">
-        <v>0</v>
-      </c>
       <c r="H188" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>191</v>
       </c>
@@ -6819,20 +6281,14 @@
       <c r="D189" t="b">
         <v>0</v>
       </c>
-      <c r="E189" t="b">
-        <v>0</v>
-      </c>
-      <c r="F189" t="b">
-        <v>0</v>
-      </c>
-      <c r="G189" t="b">
-        <v>0</v>
-      </c>
       <c r="H189" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>192</v>
       </c>
@@ -6845,20 +6301,14 @@
       <c r="D190" t="b">
         <v>0</v>
       </c>
-      <c r="E190" t="b">
-        <v>0</v>
-      </c>
-      <c r="F190" t="b">
-        <v>0</v>
-      </c>
-      <c r="G190" t="b">
-        <v>0</v>
-      </c>
       <c r="H190" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>193</v>
       </c>
@@ -6871,20 +6321,14 @@
       <c r="D191" t="b">
         <v>0</v>
       </c>
-      <c r="E191" t="b">
-        <v>0</v>
-      </c>
-      <c r="F191" t="b">
-        <v>0</v>
-      </c>
-      <c r="G191" t="b">
-        <v>0</v>
-      </c>
       <c r="H191" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>194</v>
       </c>
@@ -6897,20 +6341,14 @@
       <c r="D192" t="b">
         <v>0</v>
       </c>
-      <c r="E192" t="b">
-        <v>0</v>
-      </c>
-      <c r="F192" t="b">
-        <v>0</v>
-      </c>
-      <c r="G192" t="b">
-        <v>0</v>
-      </c>
       <c r="H192" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -6923,20 +6361,14 @@
       <c r="D193" t="b">
         <v>0</v>
       </c>
-      <c r="E193" t="b">
-        <v>0</v>
-      </c>
-      <c r="F193" t="b">
-        <v>0</v>
-      </c>
-      <c r="G193" t="b">
-        <v>0</v>
-      </c>
       <c r="H193" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>196</v>
       </c>
@@ -6949,20 +6381,14 @@
       <c r="D194" t="b">
         <v>0</v>
       </c>
-      <c r="E194" t="b">
-        <v>0</v>
-      </c>
-      <c r="F194" t="b">
-        <v>0</v>
-      </c>
-      <c r="G194" t="b">
-        <v>0</v>
-      </c>
       <c r="H194" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>197</v>
       </c>
@@ -6975,20 +6401,14 @@
       <c r="D195" t="b">
         <v>0</v>
       </c>
-      <c r="E195" t="b">
-        <v>0</v>
-      </c>
-      <c r="F195" t="b">
-        <v>0</v>
-      </c>
-      <c r="G195" t="b">
-        <v>0</v>
-      </c>
       <c r="H195" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>198</v>
       </c>
@@ -7001,25 +6421,19 @@
       <c r="D196" t="b">
         <v>0</v>
       </c>
-      <c r="E196" t="b">
-        <v>0</v>
-      </c>
-      <c r="F196" t="b">
-        <v>0</v>
-      </c>
-      <c r="G196" t="b">
-        <v>0</v>
-      </c>
       <c r="H196" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>199</v>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="b">
         <v>1</v>
@@ -7027,25 +6441,19 @@
       <c r="D197" t="b">
         <v>1</v>
       </c>
-      <c r="E197" t="b">
-        <v>1</v>
-      </c>
-      <c r="F197" t="b">
-        <v>1</v>
-      </c>
-      <c r="G197" t="b">
-        <v>0</v>
-      </c>
       <c r="H197" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>200</v>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="b">
         <v>1</v>
@@ -7053,20 +6461,14 @@
       <c r="D198" t="b">
         <v>1</v>
       </c>
-      <c r="E198" t="b">
-        <v>1</v>
-      </c>
-      <c r="F198" t="b">
-        <v>1</v>
-      </c>
-      <c r="G198" t="b">
-        <v>0</v>
-      </c>
       <c r="H198" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>201</v>
       </c>
@@ -7079,20 +6481,14 @@
       <c r="D199" t="b">
         <v>0</v>
       </c>
-      <c r="E199" t="b">
-        <v>0</v>
-      </c>
-      <c r="F199" t="b">
-        <v>0</v>
-      </c>
-      <c r="G199" t="b">
-        <v>0</v>
-      </c>
       <c r="H199" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -7105,25 +6501,19 @@
       <c r="D200" t="b">
         <v>0</v>
       </c>
-      <c r="E200" t="b">
-        <v>0</v>
-      </c>
-      <c r="F200" t="b">
-        <v>0</v>
-      </c>
-      <c r="G200" t="b">
-        <v>0</v>
-      </c>
       <c r="H200" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>203</v>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="b">
         <v>1</v>
@@ -7131,25 +6521,19 @@
       <c r="D201" t="b">
         <v>1</v>
       </c>
-      <c r="E201" t="b">
-        <v>1</v>
-      </c>
-      <c r="F201" t="b">
-        <v>1</v>
-      </c>
-      <c r="G201" t="b">
-        <v>0</v>
-      </c>
       <c r="H201" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>204</v>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="b">
         <v>1</v>
@@ -7157,20 +6541,14 @@
       <c r="D202" t="b">
         <v>1</v>
       </c>
-      <c r="E202" t="b">
-        <v>1</v>
-      </c>
-      <c r="F202" t="b">
-        <v>1</v>
-      </c>
-      <c r="G202" t="b">
-        <v>0</v>
-      </c>
       <c r="H202" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>205</v>
       </c>
@@ -7183,25 +6561,19 @@
       <c r="D203" t="b">
         <v>0</v>
       </c>
-      <c r="E203" t="b">
-        <v>0</v>
-      </c>
-      <c r="F203" t="b">
-        <v>0</v>
-      </c>
-      <c r="G203" t="b">
-        <v>0</v>
-      </c>
       <c r="H203" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>206</v>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="b">
         <v>1</v>
@@ -7209,25 +6581,19 @@
       <c r="D204" t="b">
         <v>1</v>
       </c>
-      <c r="E204" t="b">
-        <v>1</v>
-      </c>
-      <c r="F204" t="b">
-        <v>1</v>
-      </c>
-      <c r="G204" t="b">
-        <v>0</v>
-      </c>
       <c r="H204" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>207</v>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" t="b">
         <v>1</v>
@@ -7235,25 +6601,19 @@
       <c r="D205" t="b">
         <v>1</v>
       </c>
-      <c r="E205" t="b">
-        <v>1</v>
-      </c>
-      <c r="F205" t="b">
-        <v>1</v>
-      </c>
-      <c r="G205" t="b">
-        <v>0</v>
-      </c>
       <c r="H205" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>208</v>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" t="b">
         <v>1</v>
@@ -7261,25 +6621,19 @@
       <c r="D206" t="b">
         <v>1</v>
       </c>
-      <c r="E206" t="b">
-        <v>1</v>
-      </c>
-      <c r="F206" t="b">
-        <v>1</v>
-      </c>
-      <c r="G206" t="b">
-        <v>0</v>
-      </c>
       <c r="H206" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>209</v>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="b">
         <v>1</v>
@@ -7287,20 +6641,14 @@
       <c r="D207" t="b">
         <v>1</v>
       </c>
-      <c r="E207" t="b">
-        <v>1</v>
-      </c>
-      <c r="F207" t="b">
-        <v>1</v>
-      </c>
-      <c r="G207" t="b">
-        <v>0</v>
-      </c>
       <c r="H207" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>210</v>
       </c>
@@ -7313,20 +6661,14 @@
       <c r="D208" t="b">
         <v>0</v>
       </c>
-      <c r="E208" t="b">
-        <v>0</v>
-      </c>
-      <c r="F208" t="b">
-        <v>0</v>
-      </c>
-      <c r="G208" t="b">
-        <v>0</v>
-      </c>
       <c r="H208" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>211</v>
       </c>
@@ -7339,20 +6681,14 @@
       <c r="D209" t="b">
         <v>0</v>
       </c>
-      <c r="E209" t="b">
-        <v>0</v>
-      </c>
-      <c r="F209" t="b">
-        <v>0</v>
-      </c>
-      <c r="G209" t="b">
-        <v>0</v>
-      </c>
       <c r="H209" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>212</v>
       </c>
@@ -7365,20 +6701,14 @@
       <c r="D210" t="b">
         <v>0</v>
       </c>
-      <c r="E210" t="b">
-        <v>0</v>
-      </c>
-      <c r="F210" t="b">
-        <v>0</v>
-      </c>
-      <c r="G210" t="b">
-        <v>0</v>
-      </c>
       <c r="H210" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -7391,20 +6721,14 @@
       <c r="D211" t="b">
         <v>0</v>
       </c>
-      <c r="E211" t="b">
-        <v>0</v>
-      </c>
-      <c r="F211" t="b">
-        <v>0</v>
-      </c>
-      <c r="G211" t="b">
-        <v>0</v>
-      </c>
       <c r="H211" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -7417,20 +6741,14 @@
       <c r="D212" t="b">
         <v>0</v>
       </c>
-      <c r="E212" t="b">
-        <v>0</v>
-      </c>
-      <c r="F212" t="b">
-        <v>0</v>
-      </c>
-      <c r="G212" t="b">
-        <v>0</v>
-      </c>
       <c r="H212" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>215</v>
       </c>
@@ -7443,25 +6761,19 @@
       <c r="D213" t="b">
         <v>0</v>
       </c>
-      <c r="E213" t="b">
-        <v>0</v>
-      </c>
-      <c r="F213" t="b">
-        <v>0</v>
-      </c>
-      <c r="G213" t="b">
-        <v>0</v>
-      </c>
       <c r="H213" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>216</v>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="b">
         <v>1</v>
@@ -7469,25 +6781,19 @@
       <c r="D214" t="b">
         <v>1</v>
       </c>
-      <c r="E214" t="b">
-        <v>1</v>
-      </c>
-      <c r="F214" t="b">
-        <v>1</v>
-      </c>
-      <c r="G214" t="b">
-        <v>0</v>
-      </c>
       <c r="H214" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>217</v>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="b">
         <v>1</v>
@@ -7495,25 +6801,19 @@
       <c r="D215" t="b">
         <v>1</v>
       </c>
-      <c r="E215" t="b">
-        <v>1</v>
-      </c>
-      <c r="F215" t="b">
-        <v>1</v>
-      </c>
-      <c r="G215" t="b">
-        <v>0</v>
-      </c>
       <c r="H215" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>218</v>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="b">
         <v>1</v>
@@ -7521,25 +6821,19 @@
       <c r="D216" t="b">
         <v>1</v>
       </c>
-      <c r="E216" t="b">
-        <v>1</v>
-      </c>
-      <c r="F216" t="b">
-        <v>1</v>
-      </c>
-      <c r="G216" t="b">
-        <v>0</v>
-      </c>
       <c r="H216" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>219</v>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" t="b">
         <v>1</v>
@@ -7547,25 +6841,19 @@
       <c r="D217" t="b">
         <v>1</v>
       </c>
-      <c r="E217" t="b">
-        <v>1</v>
-      </c>
-      <c r="F217" t="b">
-        <v>1</v>
-      </c>
-      <c r="G217" t="b">
-        <v>0</v>
-      </c>
       <c r="H217" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>220</v>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="b">
         <v>1</v>
@@ -7573,20 +6861,14 @@
       <c r="D218" t="b">
         <v>1</v>
       </c>
-      <c r="E218" t="b">
-        <v>1</v>
-      </c>
-      <c r="F218" t="b">
-        <v>1</v>
-      </c>
-      <c r="G218" t="b">
-        <v>0</v>
-      </c>
       <c r="H218" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>221</v>
       </c>
@@ -7599,20 +6881,14 @@
       <c r="D219" t="b">
         <v>0</v>
       </c>
-      <c r="E219" t="b">
-        <v>0</v>
-      </c>
-      <c r="F219" t="b">
-        <v>0</v>
-      </c>
-      <c r="G219" t="b">
-        <v>0</v>
-      </c>
       <c r="H219" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>222</v>
       </c>
@@ -7625,20 +6901,14 @@
       <c r="D220" t="b">
         <v>0</v>
       </c>
-      <c r="E220" t="b">
-        <v>0</v>
-      </c>
-      <c r="F220" t="b">
-        <v>0</v>
-      </c>
-      <c r="G220" t="b">
-        <v>0</v>
-      </c>
       <c r="H220" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>223</v>
       </c>
@@ -7651,20 +6921,14 @@
       <c r="D221" t="b">
         <v>0</v>
       </c>
-      <c r="E221" t="b">
-        <v>0</v>
-      </c>
-      <c r="F221" t="b">
-        <v>0</v>
-      </c>
-      <c r="G221" t="b">
-        <v>0</v>
-      </c>
       <c r="H221" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>224</v>
       </c>
@@ -7677,20 +6941,14 @@
       <c r="D222" t="b">
         <v>0</v>
       </c>
-      <c r="E222" t="b">
-        <v>0</v>
-      </c>
-      <c r="F222" t="b">
-        <v>0</v>
-      </c>
-      <c r="G222" t="b">
-        <v>0</v>
-      </c>
       <c r="H222" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>225</v>
       </c>
@@ -7703,25 +6961,19 @@
       <c r="D223" t="b">
         <v>0</v>
       </c>
-      <c r="E223" t="b">
-        <v>0</v>
-      </c>
-      <c r="F223" t="b">
-        <v>0</v>
-      </c>
-      <c r="G223" t="b">
-        <v>0</v>
-      </c>
       <c r="H223" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>226</v>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="b">
         <v>1</v>
@@ -7729,20 +6981,14 @@
       <c r="D224" t="b">
         <v>1</v>
       </c>
-      <c r="E224" t="b">
-        <v>1</v>
-      </c>
-      <c r="F224" t="b">
-        <v>1</v>
-      </c>
-      <c r="G224" t="b">
-        <v>0</v>
-      </c>
       <c r="H224" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>227</v>
       </c>
@@ -7755,20 +7001,14 @@
       <c r="D225" t="b">
         <v>0</v>
       </c>
-      <c r="E225" t="b">
-        <v>0</v>
-      </c>
-      <c r="F225" t="b">
-        <v>0</v>
-      </c>
-      <c r="G225" t="b">
-        <v>0</v>
-      </c>
       <c r="H225" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>228</v>
       </c>
@@ -7781,20 +7021,14 @@
       <c r="D226" t="b">
         <v>0</v>
       </c>
-      <c r="E226" t="b">
-        <v>0</v>
-      </c>
-      <c r="F226" t="b">
-        <v>0</v>
-      </c>
-      <c r="G226" t="b">
-        <v>0</v>
-      </c>
       <c r="H226" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>229</v>
       </c>
@@ -7807,20 +7041,14 @@
       <c r="D227" t="b">
         <v>0</v>
       </c>
-      <c r="E227" t="b">
-        <v>0</v>
-      </c>
-      <c r="F227" t="b">
-        <v>0</v>
-      </c>
-      <c r="G227" t="b">
-        <v>0</v>
-      </c>
       <c r="H227" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>230</v>
       </c>
@@ -7833,25 +7061,19 @@
       <c r="D228" t="b">
         <v>0</v>
       </c>
-      <c r="E228" t="b">
-        <v>0</v>
-      </c>
-      <c r="F228" t="b">
-        <v>0</v>
-      </c>
-      <c r="G228" t="b">
-        <v>0</v>
-      </c>
       <c r="H228" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>231</v>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229" t="b">
         <v>1</v>
@@ -7859,25 +7081,19 @@
       <c r="D229" t="b">
         <v>1</v>
       </c>
-      <c r="E229" t="b">
-        <v>1</v>
-      </c>
-      <c r="F229" t="b">
-        <v>1</v>
-      </c>
-      <c r="G229" t="b">
-        <v>0</v>
-      </c>
       <c r="H229" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>232</v>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230" t="b">
         <v>1</v>
@@ -7885,25 +7101,19 @@
       <c r="D230" t="b">
         <v>1</v>
       </c>
-      <c r="E230" t="b">
-        <v>1</v>
-      </c>
-      <c r="F230" t="b">
-        <v>1</v>
-      </c>
-      <c r="G230" t="b">
-        <v>0</v>
-      </c>
       <c r="H230" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>233</v>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="b">
         <v>1</v>
@@ -7911,25 +7121,19 @@
       <c r="D231" t="b">
         <v>1</v>
       </c>
-      <c r="E231" t="b">
-        <v>1</v>
-      </c>
-      <c r="F231" t="b">
-        <v>1</v>
-      </c>
-      <c r="G231" t="b">
-        <v>0</v>
-      </c>
       <c r="H231" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>234</v>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C232" t="b">
         <v>1</v>
@@ -7937,20 +7141,14 @@
       <c r="D232" t="b">
         <v>1</v>
       </c>
-      <c r="E232" t="b">
-        <v>1</v>
-      </c>
-      <c r="F232" t="b">
-        <v>1</v>
-      </c>
-      <c r="G232" t="b">
-        <v>0</v>
-      </c>
       <c r="H232" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>235</v>
       </c>
@@ -7963,20 +7161,14 @@
       <c r="D233" t="b">
         <v>0</v>
       </c>
-      <c r="E233" t="b">
-        <v>0</v>
-      </c>
-      <c r="F233" t="b">
-        <v>0</v>
-      </c>
-      <c r="G233" t="b">
-        <v>0</v>
-      </c>
       <c r="H233" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>236</v>
       </c>
@@ -7989,20 +7181,14 @@
       <c r="D234" t="b">
         <v>0</v>
       </c>
-      <c r="E234" t="b">
-        <v>0</v>
-      </c>
-      <c r="F234" t="b">
-        <v>0</v>
-      </c>
-      <c r="G234" t="b">
-        <v>0</v>
-      </c>
       <c r="H234" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>237</v>
       </c>
@@ -8015,20 +7201,14 @@
       <c r="D235" t="b">
         <v>0</v>
       </c>
-      <c r="E235" t="b">
-        <v>0</v>
-      </c>
-      <c r="F235" t="b">
-        <v>0</v>
-      </c>
-      <c r="G235" t="b">
-        <v>0</v>
-      </c>
       <c r="H235" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>238</v>
       </c>
@@ -8041,20 +7221,14 @@
       <c r="D236" t="b">
         <v>0</v>
       </c>
-      <c r="E236" t="b">
-        <v>0</v>
-      </c>
-      <c r="F236" t="b">
-        <v>0</v>
-      </c>
-      <c r="G236" t="b">
-        <v>0</v>
-      </c>
       <c r="H236" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>239</v>
       </c>
@@ -8067,25 +7241,19 @@
       <c r="D237" t="b">
         <v>0</v>
       </c>
-      <c r="E237" t="b">
-        <v>0</v>
-      </c>
-      <c r="F237" t="b">
-        <v>0</v>
-      </c>
-      <c r="G237" t="b">
-        <v>0</v>
-      </c>
       <c r="H237" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>240</v>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="b">
         <v>1</v>
@@ -8093,25 +7261,19 @@
       <c r="D238" t="b">
         <v>1</v>
       </c>
-      <c r="E238" t="b">
-        <v>1</v>
-      </c>
-      <c r="F238" t="b">
-        <v>1</v>
-      </c>
-      <c r="G238" t="b">
-        <v>0</v>
-      </c>
       <c r="H238" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>241</v>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" t="b">
         <v>1</v>
@@ -8119,25 +7281,19 @@
       <c r="D239" t="b">
         <v>1</v>
       </c>
-      <c r="E239" t="b">
-        <v>1</v>
-      </c>
-      <c r="F239" t="b">
-        <v>1</v>
-      </c>
-      <c r="G239" t="b">
-        <v>0</v>
-      </c>
       <c r="H239" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>242</v>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="b">
         <v>1</v>
@@ -8145,25 +7301,19 @@
       <c r="D240" t="b">
         <v>1</v>
       </c>
-      <c r="E240" t="b">
-        <v>1</v>
-      </c>
-      <c r="F240" t="b">
-        <v>1</v>
-      </c>
-      <c r="G240" t="b">
-        <v>0</v>
-      </c>
       <c r="H240" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>243</v>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="b">
         <v>1</v>
@@ -8171,25 +7321,19 @@
       <c r="D241" t="b">
         <v>1</v>
       </c>
-      <c r="E241" t="b">
-        <v>1</v>
-      </c>
-      <c r="F241" t="b">
-        <v>1</v>
-      </c>
-      <c r="G241" t="b">
-        <v>0</v>
-      </c>
       <c r="H241" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>244</v>
       </c>
       <c r="B242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="b">
         <v>1</v>
@@ -8197,25 +7341,19 @@
       <c r="D242" t="b">
         <v>1</v>
       </c>
-      <c r="E242" t="b">
-        <v>1</v>
-      </c>
-      <c r="F242" t="b">
-        <v>1</v>
-      </c>
-      <c r="G242" t="b">
-        <v>0</v>
-      </c>
       <c r="H242" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>245</v>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="b">
         <v>1</v>
@@ -8223,57 +7361,39 @@
       <c r="D243" t="b">
         <v>1</v>
       </c>
-      <c r="E243" t="b">
-        <v>1</v>
-      </c>
-      <c r="F243" t="b">
-        <v>1</v>
-      </c>
-      <c r="G243" t="b">
-        <v>0</v>
-      </c>
       <c r="H243" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>246</v>
       </c>
       <c r="B244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="b">
         <v>1</v>
       </c>
       <c r="D244" t="b">
-        <v>1</v>
-      </c>
-      <c r="E244" t="b">
-        <v>0</v>
-      </c>
-      <c r="F244" t="b">
-        <v>0</v>
-      </c>
-      <c r="G244" t="b">
         <v>0</v>
       </c>
       <c r="H244" t="b">
         <v>0</v>
       </c>
-      <c r="I244" t="s">
-        <v>312</v>
-      </c>
-      <c r="J244" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>247</v>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245" t="b">
         <v>1</v>
@@ -8281,25 +7401,19 @@
       <c r="D245" t="b">
         <v>1</v>
       </c>
-      <c r="E245" t="b">
-        <v>1</v>
-      </c>
-      <c r="F245" t="b">
-        <v>1</v>
-      </c>
-      <c r="G245" t="b">
-        <v>0</v>
-      </c>
       <c r="H245" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>248</v>
       </c>
       <c r="B246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" t="b">
         <v>1</v>
@@ -8307,20 +7421,14 @@
       <c r="D246" t="b">
         <v>1</v>
       </c>
-      <c r="E246" t="b">
-        <v>1</v>
-      </c>
-      <c r="F246" t="b">
-        <v>1</v>
-      </c>
-      <c r="G246" t="b">
-        <v>0</v>
-      </c>
       <c r="H246" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>249</v>
       </c>
@@ -8333,20 +7441,14 @@
       <c r="D247" t="b">
         <v>0</v>
       </c>
-      <c r="E247" t="b">
-        <v>0</v>
-      </c>
-      <c r="F247" t="b">
-        <v>0</v>
-      </c>
-      <c r="G247" t="b">
-        <v>0</v>
-      </c>
       <c r="H247" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>250</v>
       </c>
@@ -8359,20 +7461,14 @@
       <c r="D248" t="b">
         <v>0</v>
       </c>
-      <c r="E248" t="b">
-        <v>0</v>
-      </c>
-      <c r="F248" t="b">
-        <v>0</v>
-      </c>
-      <c r="G248" t="b">
-        <v>0</v>
-      </c>
       <c r="H248" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>251</v>
       </c>
@@ -8385,25 +7481,19 @@
       <c r="D249" t="b">
         <v>0</v>
       </c>
-      <c r="E249" t="b">
-        <v>0</v>
-      </c>
-      <c r="F249" t="b">
-        <v>0</v>
-      </c>
-      <c r="G249" t="b">
-        <v>0</v>
-      </c>
       <c r="H249" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>252</v>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="b">
         <v>1</v>
@@ -8411,25 +7501,19 @@
       <c r="D250" t="b">
         <v>1</v>
       </c>
-      <c r="E250" t="b">
-        <v>1</v>
-      </c>
-      <c r="F250" t="b">
-        <v>1</v>
-      </c>
-      <c r="G250" t="b">
-        <v>0</v>
-      </c>
       <c r="H250" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>253</v>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251" t="b">
         <v>1</v>
@@ -8437,20 +7521,14 @@
       <c r="D251" t="b">
         <v>1</v>
       </c>
-      <c r="E251" t="b">
-        <v>1</v>
-      </c>
-      <c r="F251" t="b">
-        <v>1</v>
-      </c>
-      <c r="G251" t="b">
-        <v>0</v>
-      </c>
       <c r="H251" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>254</v>
       </c>
@@ -8463,25 +7541,19 @@
       <c r="D252" t="b">
         <v>0</v>
       </c>
-      <c r="E252" t="b">
-        <v>0</v>
-      </c>
-      <c r="F252" t="b">
-        <v>0</v>
-      </c>
-      <c r="G252" t="b">
-        <v>0</v>
-      </c>
       <c r="H252" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>255</v>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="b">
         <v>1</v>
@@ -8489,20 +7561,14 @@
       <c r="D253" t="b">
         <v>1</v>
       </c>
-      <c r="E253" t="b">
-        <v>1</v>
-      </c>
-      <c r="F253" t="b">
-        <v>1</v>
-      </c>
-      <c r="G253" t="b">
-        <v>0</v>
-      </c>
       <c r="H253" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>256</v>
       </c>
@@ -8515,25 +7581,19 @@
       <c r="D254" t="b">
         <v>0</v>
       </c>
-      <c r="E254" t="b">
-        <v>0</v>
-      </c>
-      <c r="F254" t="b">
-        <v>0</v>
-      </c>
-      <c r="G254" t="b">
-        <v>0</v>
-      </c>
       <c r="H254" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>257</v>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" t="b">
         <v>1</v>
@@ -8541,20 +7601,14 @@
       <c r="D255" t="b">
         <v>1</v>
       </c>
-      <c r="E255" t="b">
-        <v>1</v>
-      </c>
-      <c r="F255" t="b">
-        <v>1</v>
-      </c>
-      <c r="G255" t="b">
-        <v>0</v>
-      </c>
       <c r="H255" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>258</v>
       </c>
@@ -8567,16 +7621,10 @@
       <c r="D256" t="b">
         <v>0</v>
       </c>
-      <c r="E256" t="b">
-        <v>0</v>
-      </c>
-      <c r="F256" t="b">
-        <v>0</v>
-      </c>
-      <c r="G256" t="b">
-        <v>0</v>
-      </c>
       <c r="H256" t="b">
+        <v>0</v>
+      </c>
+      <c r="I256" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8585,7 +7633,7 @@
         <v>259</v>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257" t="b">
         <v>1</v>
@@ -8593,16 +7641,10 @@
       <c r="D257" t="b">
         <v>1</v>
       </c>
-      <c r="E257" t="b">
-        <v>1</v>
-      </c>
-      <c r="F257" t="b">
-        <v>1</v>
-      </c>
-      <c r="G257" t="b">
-        <v>0</v>
-      </c>
       <c r="H257" t="b">
+        <v>0</v>
+      </c>
+      <c r="I257" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8619,16 +7661,10 @@
       <c r="D258" t="b">
         <v>0</v>
       </c>
-      <c r="E258" t="b">
-        <v>0</v>
-      </c>
-      <c r="F258" t="b">
-        <v>0</v>
-      </c>
-      <c r="G258" t="b">
-        <v>0</v>
-      </c>
       <c r="H258" t="b">
+        <v>0</v>
+      </c>
+      <c r="I258" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8637,7 +7673,7 @@
         <v>261</v>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="b">
         <v>1</v>
@@ -8645,20 +7681,11 @@
       <c r="D259" t="b">
         <v>1</v>
       </c>
-      <c r="E259" t="b">
-        <v>1</v>
-      </c>
-      <c r="F259" t="b">
-        <v>1</v>
-      </c>
-      <c r="G259" t="b">
-        <v>0</v>
-      </c>
       <c r="H259" t="b">
         <v>0</v>
       </c>
-      <c r="I259" t="s">
-        <v>312</v>
+      <c r="I259" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -8666,7 +7693,7 @@
         <v>262</v>
       </c>
       <c r="B260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" t="b">
         <v>1</v>
@@ -8674,20 +7701,11 @@
       <c r="D260" t="b">
         <v>1</v>
       </c>
-      <c r="E260" t="b">
-        <v>1</v>
-      </c>
-      <c r="F260" t="b">
-        <v>1</v>
-      </c>
-      <c r="G260" t="b">
-        <v>0</v>
-      </c>
       <c r="H260" t="b">
         <v>0</v>
       </c>
-      <c r="I260" t="s">
-        <v>312</v>
+      <c r="I260" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -8695,7 +7713,7 @@
         <v>263</v>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261" t="b">
         <v>1</v>
@@ -8703,16 +7721,10 @@
       <c r="D261" t="b">
         <v>1</v>
       </c>
-      <c r="E261" t="b">
-        <v>1</v>
-      </c>
-      <c r="F261" t="b">
-        <v>1</v>
-      </c>
-      <c r="G261" t="b">
-        <v>0</v>
-      </c>
       <c r="H261" t="b">
+        <v>0</v>
+      </c>
+      <c r="I261" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8721,7 +7733,7 @@
         <v>264</v>
       </c>
       <c r="B262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C262" t="b">
         <v>1</v>
@@ -8729,16 +7741,10 @@
       <c r="D262" t="b">
         <v>1</v>
       </c>
-      <c r="E262" t="b">
-        <v>1</v>
-      </c>
-      <c r="F262" t="b">
-        <v>1</v>
-      </c>
-      <c r="G262" t="b">
-        <v>0</v>
-      </c>
       <c r="H262" t="b">
+        <v>0</v>
+      </c>
+      <c r="I262" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8747,7 +7753,7 @@
         <v>265</v>
       </c>
       <c r="B263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" t="b">
         <v>1</v>
@@ -8755,16 +7761,10 @@
       <c r="D263" t="b">
         <v>1</v>
       </c>
-      <c r="E263" t="b">
-        <v>1</v>
-      </c>
-      <c r="F263" t="b">
-        <v>1</v>
-      </c>
-      <c r="G263" t="b">
-        <v>0</v>
-      </c>
       <c r="H263" t="b">
+        <v>0</v>
+      </c>
+      <c r="I263" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8781,16 +7781,10 @@
       <c r="D264" t="b">
         <v>0</v>
       </c>
-      <c r="E264" t="b">
-        <v>0</v>
-      </c>
-      <c r="F264" t="b">
-        <v>0</v>
-      </c>
-      <c r="G264" t="b">
-        <v>0</v>
-      </c>
       <c r="H264" t="b">
+        <v>0</v>
+      </c>
+      <c r="I264" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8799,7 +7793,7 @@
         <v>267</v>
       </c>
       <c r="B265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C265" t="b">
         <v>1</v>
@@ -8807,16 +7801,10 @@
       <c r="D265" t="b">
         <v>1</v>
       </c>
-      <c r="E265" t="b">
-        <v>1</v>
-      </c>
-      <c r="F265" t="b">
-        <v>1</v>
-      </c>
-      <c r="G265" t="b">
-        <v>0</v>
-      </c>
       <c r="H265" t="b">
+        <v>0</v>
+      </c>
+      <c r="I265" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8833,16 +7821,10 @@
       <c r="D266" t="b">
         <v>0</v>
       </c>
-      <c r="E266" t="b">
-        <v>0</v>
-      </c>
-      <c r="F266" t="b">
-        <v>0</v>
-      </c>
-      <c r="G266" t="b">
-        <v>0</v>
-      </c>
       <c r="H266" t="b">
+        <v>0</v>
+      </c>
+      <c r="I266" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8859,16 +7841,10 @@
       <c r="D267" t="b">
         <v>0</v>
       </c>
-      <c r="E267" t="b">
-        <v>0</v>
-      </c>
-      <c r="F267" t="b">
-        <v>0</v>
-      </c>
-      <c r="G267" t="b">
-        <v>0</v>
-      </c>
       <c r="H267" t="b">
+        <v>0</v>
+      </c>
+      <c r="I267" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8877,7 +7853,7 @@
         <v>270</v>
       </c>
       <c r="B268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="b">
         <v>1</v>
@@ -8885,16 +7861,10 @@
       <c r="D268" t="b">
         <v>1</v>
       </c>
-      <c r="E268" t="b">
-        <v>1</v>
-      </c>
-      <c r="F268" t="b">
-        <v>1</v>
-      </c>
-      <c r="G268" t="b">
-        <v>0</v>
-      </c>
       <c r="H268" t="b">
+        <v>0</v>
+      </c>
+      <c r="I268" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8903,7 +7873,7 @@
         <v>271</v>
       </c>
       <c r="B269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" t="b">
         <v>1</v>
@@ -8911,16 +7881,10 @@
       <c r="D269" t="b">
         <v>1</v>
       </c>
-      <c r="E269" t="b">
-        <v>1</v>
-      </c>
-      <c r="F269" t="b">
-        <v>1</v>
-      </c>
-      <c r="G269" t="b">
-        <v>0</v>
-      </c>
       <c r="H269" t="b">
+        <v>0</v>
+      </c>
+      <c r="I269" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8929,7 +7893,7 @@
         <v>272</v>
       </c>
       <c r="B270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="b">
         <v>1</v>
@@ -8937,16 +7901,10 @@
       <c r="D270" t="b">
         <v>1</v>
       </c>
-      <c r="E270" t="b">
-        <v>1</v>
-      </c>
-      <c r="F270" t="b">
-        <v>1</v>
-      </c>
-      <c r="G270" t="b">
-        <v>0</v>
-      </c>
       <c r="H270" t="b">
+        <v>0</v>
+      </c>
+      <c r="I270" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8955,7 +7913,7 @@
         <v>273</v>
       </c>
       <c r="B271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="b">
         <v>1</v>
@@ -8963,16 +7921,10 @@
       <c r="D271" t="b">
         <v>1</v>
       </c>
-      <c r="E271" t="b">
-        <v>1</v>
-      </c>
-      <c r="F271" t="b">
-        <v>1</v>
-      </c>
-      <c r="G271" t="b">
-        <v>0</v>
-      </c>
       <c r="H271" t="b">
+        <v>0</v>
+      </c>
+      <c r="I271" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8981,7 +7933,7 @@
         <v>274</v>
       </c>
       <c r="B272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="b">
         <v>1</v>
@@ -8989,25 +7941,19 @@
       <c r="D272" t="b">
         <v>1</v>
       </c>
-      <c r="E272" t="b">
-        <v>1</v>
-      </c>
-      <c r="F272" t="b">
-        <v>1</v>
-      </c>
-      <c r="G272" t="b">
-        <v>0</v>
-      </c>
       <c r="H272" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>275</v>
       </c>
       <c r="B273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C273" t="b">
         <v>1</v>
@@ -9015,25 +7961,19 @@
       <c r="D273" t="b">
         <v>1</v>
       </c>
-      <c r="E273" t="b">
-        <v>1</v>
-      </c>
-      <c r="F273" t="b">
-        <v>1</v>
-      </c>
-      <c r="G273" t="b">
-        <v>0</v>
-      </c>
       <c r="H273" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>276</v>
       </c>
       <c r="B274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" t="b">
         <v>1</v>
@@ -9041,25 +7981,19 @@
       <c r="D274" t="b">
         <v>1</v>
       </c>
-      <c r="E274" t="b">
-        <v>1</v>
-      </c>
-      <c r="F274" t="b">
-        <v>1</v>
-      </c>
-      <c r="G274" t="b">
-        <v>0</v>
-      </c>
       <c r="H274" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>277</v>
       </c>
       <c r="B275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C275" t="b">
         <v>1</v>
@@ -9067,25 +8001,19 @@
       <c r="D275" t="b">
         <v>1</v>
       </c>
-      <c r="E275" t="b">
-        <v>1</v>
-      </c>
-      <c r="F275" t="b">
-        <v>1</v>
-      </c>
-      <c r="G275" t="b">
-        <v>0</v>
-      </c>
       <c r="H275" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>278</v>
       </c>
       <c r="B276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276" t="b">
         <v>1</v>
@@ -9093,20 +8021,14 @@
       <c r="D276" t="b">
         <v>1</v>
       </c>
-      <c r="E276" t="b">
-        <v>1</v>
-      </c>
-      <c r="F276" t="b">
-        <v>1</v>
-      </c>
-      <c r="G276" t="b">
-        <v>0</v>
-      </c>
       <c r="H276" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>279</v>
       </c>
@@ -9119,20 +8041,14 @@
       <c r="D277" t="b">
         <v>0</v>
       </c>
-      <c r="E277" t="b">
-        <v>0</v>
-      </c>
-      <c r="F277" t="b">
-        <v>0</v>
-      </c>
-      <c r="G277" t="b">
-        <v>0</v>
-      </c>
       <c r="H277" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I277" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>280</v>
       </c>
@@ -9145,20 +8061,14 @@
       <c r="D278" t="b">
         <v>0</v>
       </c>
-      <c r="E278" t="b">
-        <v>0</v>
-      </c>
-      <c r="F278" t="b">
-        <v>0</v>
-      </c>
-      <c r="G278" t="b">
-        <v>0</v>
-      </c>
       <c r="H278" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I278" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>282</v>
       </c>
@@ -9171,20 +8081,14 @@
       <c r="D279" t="b">
         <v>0</v>
       </c>
-      <c r="E279" t="b">
-        <v>0</v>
-      </c>
-      <c r="F279" t="b">
-        <v>0</v>
-      </c>
-      <c r="G279" t="b">
-        <v>0</v>
-      </c>
       <c r="H279" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I279" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>281</v>
       </c>
@@ -9197,20 +8101,14 @@
       <c r="D280" t="b">
         <v>0</v>
       </c>
-      <c r="E280" t="b">
-        <v>0</v>
-      </c>
-      <c r="F280" t="b">
-        <v>0</v>
-      </c>
-      <c r="G280" t="b">
-        <v>0</v>
-      </c>
       <c r="H280" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I280" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>283</v>
       </c>
@@ -9223,20 +8121,14 @@
       <c r="D281" t="b">
         <v>0</v>
       </c>
-      <c r="E281" t="b">
-        <v>0</v>
-      </c>
-      <c r="F281" t="b">
-        <v>0</v>
-      </c>
-      <c r="G281" t="b">
-        <v>0</v>
-      </c>
       <c r="H281" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I281" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>284</v>
       </c>
@@ -9249,20 +8141,14 @@
       <c r="D282" t="b">
         <v>0</v>
       </c>
-      <c r="E282" t="b">
-        <v>0</v>
-      </c>
-      <c r="F282" t="b">
-        <v>0</v>
-      </c>
-      <c r="G282" t="b">
-        <v>0</v>
-      </c>
       <c r="H282" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I282" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>285</v>
       </c>
@@ -9275,25 +8161,19 @@
       <c r="D283" t="b">
         <v>0</v>
       </c>
-      <c r="E283" t="b">
-        <v>0</v>
-      </c>
-      <c r="F283" t="b">
-        <v>0</v>
-      </c>
-      <c r="G283" t="b">
-        <v>0</v>
-      </c>
       <c r="H283" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I283" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>286</v>
       </c>
       <c r="B284" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" t="b">
         <v>1</v>
@@ -9301,25 +8181,19 @@
       <c r="D284" t="b">
         <v>1</v>
       </c>
-      <c r="E284" t="b">
-        <v>1</v>
-      </c>
-      <c r="F284" t="b">
-        <v>1</v>
-      </c>
-      <c r="G284" t="b">
-        <v>0</v>
-      </c>
       <c r="H284" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I284" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>287</v>
       </c>
       <c r="B285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C285" t="b">
         <v>1</v>
@@ -9327,25 +8201,19 @@
       <c r="D285" t="b">
         <v>1</v>
       </c>
-      <c r="E285" t="b">
-        <v>1</v>
-      </c>
-      <c r="F285" t="b">
-        <v>1</v>
-      </c>
-      <c r="G285" t="b">
-        <v>0</v>
-      </c>
       <c r="H285" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I285" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>288</v>
       </c>
       <c r="B286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="b">
         <v>1</v>
@@ -9353,77 +8221,77 @@
       <c r="D286" t="b">
         <v>1</v>
       </c>
-      <c r="E286" t="b">
-        <v>1</v>
-      </c>
-      <c r="F286" t="b">
-        <v>1</v>
-      </c>
-      <c r="G286" t="b">
-        <v>0</v>
-      </c>
       <c r="H286" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I286" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>289</v>
       </c>
       <c r="B287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" t="b">
         <v>1</v>
       </c>
       <c r="D287" t="b">
-        <v>0</v>
-      </c>
-      <c r="E287" t="b">
-        <v>1</v>
-      </c>
-      <c r="F287" t="b">
-        <v>1</v>
-      </c>
-      <c r="G287" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <v>193</v>
+      </c>
+      <c r="F287">
+        <v>100</v>
+      </c>
+      <c r="G287">
+        <v>35</v>
       </c>
       <c r="H287" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I287" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>290</v>
       </c>
       <c r="B288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" t="b">
         <v>1</v>
       </c>
       <c r="D288" t="b">
-        <v>0</v>
-      </c>
-      <c r="E288" t="b">
-        <v>1</v>
-      </c>
-      <c r="F288" t="b">
-        <v>1</v>
-      </c>
-      <c r="G288" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>193</v>
+      </c>
+      <c r="F288">
+        <v>100</v>
+      </c>
+      <c r="G288">
+        <v>35</v>
       </c>
       <c r="H288" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I288" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>291</v>
       </c>
       <c r="B289" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289" t="b">
         <v>1</v>
@@ -9431,25 +8299,19 @@
       <c r="D289" t="b">
         <v>1</v>
       </c>
-      <c r="E289" t="b">
-        <v>1</v>
-      </c>
-      <c r="F289" t="b">
-        <v>1</v>
-      </c>
-      <c r="G289" t="b">
-        <v>0</v>
-      </c>
       <c r="H289" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I289" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>292</v>
       </c>
       <c r="B290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="b">
         <v>1</v>
@@ -9457,20 +8319,14 @@
       <c r="D290" t="b">
         <v>1</v>
       </c>
-      <c r="E290" t="b">
-        <v>1</v>
-      </c>
-      <c r="F290" t="b">
-        <v>1</v>
-      </c>
-      <c r="G290" t="b">
-        <v>0</v>
-      </c>
       <c r="H290" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I290" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>293</v>
       </c>
@@ -9483,20 +8339,14 @@
       <c r="D291" t="b">
         <v>0</v>
       </c>
-      <c r="E291" t="b">
-        <v>0</v>
-      </c>
-      <c r="F291" t="b">
-        <v>0</v>
-      </c>
-      <c r="G291" t="b">
-        <v>0</v>
-      </c>
       <c r="H291" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I291" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>294</v>
       </c>
@@ -9509,20 +8359,14 @@
       <c r="D292" t="b">
         <v>0</v>
       </c>
-      <c r="E292" t="b">
-        <v>0</v>
-      </c>
-      <c r="F292" t="b">
-        <v>0</v>
-      </c>
-      <c r="G292" t="b">
-        <v>0</v>
-      </c>
       <c r="H292" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I292" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>295</v>
       </c>
@@ -9535,20 +8379,14 @@
       <c r="D293" t="b">
         <v>0</v>
       </c>
-      <c r="E293" t="b">
-        <v>0</v>
-      </c>
-      <c r="F293" t="b">
-        <v>0</v>
-      </c>
-      <c r="G293" t="b">
-        <v>0</v>
-      </c>
       <c r="H293" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I293" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>296</v>
       </c>
@@ -9561,20 +8399,14 @@
       <c r="D294" t="b">
         <v>0</v>
       </c>
-      <c r="E294" t="b">
-        <v>0</v>
-      </c>
-      <c r="F294" t="b">
-        <v>0</v>
-      </c>
-      <c r="G294" t="b">
-        <v>0</v>
-      </c>
       <c r="H294" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I294" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>297</v>
       </c>
@@ -9587,25 +8419,19 @@
       <c r="D295" t="b">
         <v>0</v>
       </c>
-      <c r="E295" t="b">
-        <v>0</v>
-      </c>
-      <c r="F295" t="b">
-        <v>0</v>
-      </c>
-      <c r="G295" t="b">
-        <v>0</v>
-      </c>
       <c r="H295" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I295" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>298</v>
       </c>
       <c r="B296" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296" t="b">
         <v>1</v>
@@ -9613,25 +8439,19 @@
       <c r="D296" t="b">
         <v>1</v>
       </c>
-      <c r="E296" t="b">
-        <v>1</v>
-      </c>
-      <c r="F296" t="b">
-        <v>1</v>
-      </c>
-      <c r="G296" t="b">
-        <v>0</v>
-      </c>
       <c r="H296" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I296" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>299</v>
       </c>
       <c r="B297" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297" t="b">
         <v>1</v>
@@ -9639,25 +8459,19 @@
       <c r="D297" t="b">
         <v>1</v>
       </c>
-      <c r="E297" t="b">
-        <v>1</v>
-      </c>
-      <c r="F297" t="b">
-        <v>1</v>
-      </c>
-      <c r="G297" t="b">
-        <v>0</v>
-      </c>
       <c r="H297" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I297" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>300</v>
       </c>
       <c r="B298" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" t="b">
         <v>1</v>
@@ -9665,25 +8479,19 @@
       <c r="D298" t="b">
         <v>1</v>
       </c>
-      <c r="E298" t="b">
-        <v>1</v>
-      </c>
-      <c r="F298" t="b">
-        <v>1</v>
-      </c>
-      <c r="G298" t="b">
-        <v>0</v>
-      </c>
       <c r="H298" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I298" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>301</v>
       </c>
       <c r="B299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299" t="b">
         <v>1</v>
@@ -9691,25 +8499,19 @@
       <c r="D299" t="b">
         <v>1</v>
       </c>
-      <c r="E299" t="b">
-        <v>1</v>
-      </c>
-      <c r="F299" t="b">
-        <v>1</v>
-      </c>
-      <c r="G299" t="b">
-        <v>0</v>
-      </c>
       <c r="H299" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I299" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>302</v>
       </c>
       <c r="B300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="b">
         <v>1</v>
@@ -9717,25 +8519,19 @@
       <c r="D300" t="b">
         <v>1</v>
       </c>
-      <c r="E300" t="b">
-        <v>1</v>
-      </c>
-      <c r="F300" t="b">
-        <v>1</v>
-      </c>
-      <c r="G300" t="b">
-        <v>0</v>
-      </c>
       <c r="H300" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I300" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>303</v>
       </c>
       <c r="B301" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" t="b">
         <v>1</v>
@@ -9743,25 +8539,19 @@
       <c r="D301" t="b">
         <v>1</v>
       </c>
-      <c r="E301" t="b">
-        <v>1</v>
-      </c>
-      <c r="F301" t="b">
-        <v>1</v>
-      </c>
-      <c r="G301" t="b">
-        <v>0</v>
-      </c>
       <c r="H301" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I301" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>304</v>
       </c>
       <c r="B302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="b">
         <v>1</v>
@@ -9769,25 +8559,19 @@
       <c r="D302" t="b">
         <v>1</v>
       </c>
-      <c r="E302" t="b">
-        <v>1</v>
-      </c>
-      <c r="F302" t="b">
-        <v>1</v>
-      </c>
-      <c r="G302" t="b">
-        <v>0</v>
-      </c>
       <c r="H302" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I302" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>305</v>
       </c>
       <c r="B303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" t="b">
         <v>1</v>
@@ -9795,25 +8579,19 @@
       <c r="D303" t="b">
         <v>1</v>
       </c>
-      <c r="E303" t="b">
-        <v>1</v>
-      </c>
-      <c r="F303" t="b">
-        <v>1</v>
-      </c>
-      <c r="G303" t="b">
-        <v>0</v>
-      </c>
       <c r="H303" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I303" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>306</v>
       </c>
       <c r="B304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="b">
         <v>1</v>
@@ -9821,25 +8599,19 @@
       <c r="D304" t="b">
         <v>1</v>
       </c>
-      <c r="E304" t="b">
-        <v>1</v>
-      </c>
-      <c r="F304" t="b">
-        <v>1</v>
-      </c>
-      <c r="G304" t="b">
-        <v>0</v>
-      </c>
       <c r="H304" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I304" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>307</v>
       </c>
       <c r="B305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="b">
         <v>1</v>
@@ -9847,16 +8619,10 @@
       <c r="D305" t="b">
         <v>1</v>
       </c>
-      <c r="E305" t="b">
-        <v>1</v>
-      </c>
-      <c r="F305" t="b">
-        <v>1</v>
-      </c>
-      <c r="G305" t="b">
-        <v>0</v>
-      </c>
       <c r="H305" t="b">
+        <v>0</v>
+      </c>
+      <c r="I305" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9864,14 +8630,14 @@
   <sortState ref="A2:K305">
     <sortCondition ref="A2:A305"/>
   </sortState>
-  <conditionalFormatting sqref="K1 B1:H1048576">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
+  <conditionalFormatting sqref="L1 B1:I1048576">
+    <cfRule type="containsBlanks" dxfId="41" priority="1">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/stockParts.xlsx
+++ b/Assets/stockParts.xlsx
@@ -1492,358 +1492,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2175,7 +1824,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,6 +1931,9 @@
       <c r="F3">
         <v>120</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
@@ -2302,6 +1954,15 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>180</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>26</v>
+      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
@@ -2525,6 +2186,15 @@
       <c r="D12" t="b">
         <v>1</v>
       </c>
+      <c r="E12">
+        <v>127</v>
+      </c>
+      <c r="F12">
+        <v>63</v>
+      </c>
+      <c r="G12">
+        <v>138</v>
+      </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
@@ -2545,6 +2215,15 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
+      <c r="E13">
+        <v>183</v>
+      </c>
+      <c r="F13">
+        <v>63</v>
+      </c>
+      <c r="G13">
+        <v>88</v>
+      </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
@@ -2565,6 +2244,15 @@
       <c r="D14" t="b">
         <v>1</v>
       </c>
+      <c r="E14">
+        <v>183</v>
+      </c>
+      <c r="F14">
+        <v>63</v>
+      </c>
+      <c r="G14">
+        <v>88</v>
+      </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
@@ -2900,6 +2588,15 @@
       </c>
       <c r="D29" t="b">
         <v>1</v>
+      </c>
+      <c r="E29">
+        <v>208</v>
+      </c>
+      <c r="F29">
+        <v>150</v>
+      </c>
+      <c r="G29">
+        <v>50</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -8631,13 +8328,13 @@
     <sortCondition ref="A2:A305"/>
   </sortState>
   <conditionalFormatting sqref="L1 B1:I1048576">
-    <cfRule type="containsBlanks" dxfId="41" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
